--- a/rtss-pre1917/src/main/resources/ugvi/1907.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1907.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BOOKS\демография СССР и РСФСР\1897-1913\Отчет о состоянии народного здравия\таблицы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546C6409-B9A0-461A-9F98-E94E35D33010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B52950F-7D17-422E-BD33-AA38BA04CA35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="1950" windowWidth="16695" windowHeight="21630" xr2:uid="{26DDFB96-2A59-463B-8827-7F297B6E5252}"/>
+    <workbookView xWindow="26685" yWindow="1650" windowWidth="9570" windowHeight="21630" xr2:uid="{26DDFB96-2A59-463B-8827-7F297B6E5252}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC0A161-710E-49B7-BB61-44432D87D5A4}">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,7 +1920,7 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>11905980</v>
+        <v>11005980</v>
       </c>
       <c r="C85" s="2">
         <v>487006</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1907.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1907.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B52950F-7D17-422E-BD33-AA38BA04CA35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7F04D7-24D8-413B-8019-74C6EE164C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26685" yWindow="1650" windowWidth="9570" windowHeight="21630" xr2:uid="{26DDFB96-2A59-463B-8827-7F297B6E5252}"/>
+    <workbookView xWindow="5610" yWindow="2370" windowWidth="9525" windowHeight="21630" xr2:uid="{26DDFB96-2A59-463B-8827-7F297B6E5252}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC0A161-710E-49B7-BB61-44432D87D5A4}">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1220,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>8557419</v>
+        <v>3557419</v>
       </c>
       <c r="C35" s="2">
         <v>189760</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1907.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1907.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7F04D7-24D8-413B-8019-74C6EE164C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D910541-F7A9-44FD-9265-279645C7F10D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="2370" windowWidth="9525" windowHeight="21630" xr2:uid="{26DDFB96-2A59-463B-8827-7F297B6E5252}"/>
+    <workbookView xWindow="17535" yWindow="1890" windowWidth="18495" windowHeight="21630" xr2:uid="{26DDFB96-2A59-463B-8827-7F297B6E5252}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC0A161-710E-49B7-BB61-44432D87D5A4}">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,7 +1825,7 @@
         <v>2458969</v>
       </c>
       <c r="C78" s="2">
-        <v>13663</v>
+        <v>136639</v>
       </c>
       <c r="D78" s="2">
         <v>71098</v>
@@ -1923,7 +1923,7 @@
         <v>11005980</v>
       </c>
       <c r="C85" s="2">
-        <v>487006</v>
+        <v>437006</v>
       </c>
       <c r="D85" s="2">
         <v>245644</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1907.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1907.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D910541-F7A9-44FD-9265-279645C7F10D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC36BD02-038D-40BB-9D25-B515A8013F5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17535" yWindow="1890" windowWidth="18495" windowHeight="21630" xr2:uid="{26DDFB96-2A59-463B-8827-7F297B6E5252}"/>
+    <workbookView xWindow="16935" yWindow="2400" windowWidth="18495" windowHeight="22125" xr2:uid="{26DDFB96-2A59-463B-8827-7F297B6E5252}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC0A161-710E-49B7-BB61-44432D87D5A4}">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +987,7 @@
         <v>34250</v>
       </c>
       <c r="D18" s="2">
-        <v>17364</v>
+        <v>17384</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,7 +1001,7 @@
         <v>20126</v>
       </c>
       <c r="D19" s="2">
-        <v>11346</v>
+        <v>11340</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
         <v>23369</v>
       </c>
       <c r="D22" s="2">
-        <v>44683</v>
+        <v>14687</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
         <v>18481</v>
       </c>
       <c r="D24" s="2">
-        <v>13301</v>
+        <v>13303</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,7 +1366,7 @@
         <v>19684</v>
       </c>
       <c r="D45" s="2">
-        <v>13386</v>
+        <v>13380</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1702,7 +1702,7 @@
         <v>52452</v>
       </c>
       <c r="D69" s="2">
-        <v>31782</v>
+        <v>34782</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1744,7 +1744,7 @@
         <v>5674487</v>
       </c>
       <c r="D72" s="2">
-        <v>3468437</v>
+        <v>3408437</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2206,7 +2206,7 @@
         <v>255363</v>
       </c>
       <c r="D105" s="2">
-        <v>14775</v>
+        <v>147751</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2220,7 +2220,7 @@
         <v>1067992</v>
       </c>
       <c r="D106" s="2">
-        <v>688901</v>
+        <v>638900</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">

--- a/rtss-pre1917/src/main/resources/ugvi/1907.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1907.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC36BD02-038D-40BB-9D25-B515A8013F5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5EAA2A-ABCE-40C5-93C6-5525864DCAC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16935" yWindow="2400" windowWidth="18495" windowHeight="22125" xr2:uid="{26DDFB96-2A59-463B-8827-7F297B6E5252}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{26DDFB96-2A59-463B-8827-7F297B6E5252}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="134">
   <si>
     <t>губ</t>
   </si>
@@ -364,6 +364,75 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>чж-гор-м NYY</t>
+  </si>
+  <si>
+    <t>чж-гор-ж NYY</t>
+  </si>
+  <si>
+    <t>чр-гор-м YY</t>
+  </si>
+  <si>
+    <t>чр-гор-ж YY</t>
+  </si>
+  <si>
+    <t>чс-гор-м YY</t>
+  </si>
+  <si>
+    <t>чс-гор-ж YY</t>
+  </si>
+  <si>
+    <t>чж-уез-м NYY</t>
+  </si>
+  <si>
+    <t>чж-уез-ж NYY</t>
+  </si>
+  <si>
+    <t>чр-уез-м YY</t>
+  </si>
+  <si>
+    <t>чр-уез-ж YY</t>
+  </si>
+  <si>
+    <t>чс-уез-м YY</t>
+  </si>
+  <si>
+    <t>чс-уез-ж YY</t>
+  </si>
+  <si>
+    <t>353С</t>
+  </si>
+  <si>
+    <t>243С</t>
+  </si>
+  <si>
+    <t>69920!</t>
+  </si>
+  <si>
+    <t>87716?</t>
+  </si>
+  <si>
+    <t>82356’</t>
+  </si>
+  <si>
+    <t>71972;</t>
+  </si>
+  <si>
+    <t>7092Э</t>
+  </si>
+  <si>
+    <t>7І74</t>
+  </si>
+  <si>
+    <t>4180!</t>
+  </si>
+  <si>
+    <t>5Т13</t>
+  </si>
+  <si>
+    <t>13)5386</t>
   </si>
 </sst>
 </file>
@@ -407,10 +476,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,20 +797,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC0A161-710E-49B7-BB61-44432D87D5A4}">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="L102" sqref="L102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,8 +828,44 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -765,8 +878,44 @@
       <c r="D2" s="2">
         <v>9799</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="3">
+        <v>16498</v>
+      </c>
+      <c r="G2" s="3">
+        <v>17648</v>
+      </c>
+      <c r="H2" s="3">
+        <v>912</v>
+      </c>
+      <c r="I2" s="3">
+        <v>808</v>
+      </c>
+      <c r="J2" s="3">
+        <v>718</v>
+      </c>
+      <c r="K2" s="3">
+        <v>512</v>
+      </c>
+      <c r="L2" s="3">
+        <v>174115</v>
+      </c>
+      <c r="M2" s="3">
+        <v>193682</v>
+      </c>
+      <c r="N2" s="3">
+        <v>8422</v>
+      </c>
+      <c r="O2" s="3">
+        <v>7995</v>
+      </c>
+      <c r="P2" s="3">
+        <v>4531</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -779,8 +928,44 @@
       <c r="D3" s="2">
         <v>33399</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="3">
+        <v>82891</v>
+      </c>
+      <c r="G3" s="3">
+        <v>79622</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3647</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="3">
+        <v>4625</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3405</v>
+      </c>
+      <c r="L3" s="3">
+        <v>539102</v>
+      </c>
+      <c r="M3" s="3">
+        <v>506034</v>
+      </c>
+      <c r="N3" s="3">
+        <v>20306</v>
+      </c>
+      <c r="O3" s="3">
+        <v>19055</v>
+      </c>
+      <c r="P3" s="3">
+        <v>13875</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>11447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -793,8 +978,44 @@
       <c r="D4" s="2">
         <v>35291</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="3">
+        <v>112582</v>
+      </c>
+      <c r="G4" s="3">
+        <v>104818</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4311</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3603</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2968</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2631</v>
+      </c>
+      <c r="L4" s="3">
+        <v>828628</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N4" s="3">
+        <v>28016</v>
+      </c>
+      <c r="O4" s="3">
+        <v>26615</v>
+      </c>
+      <c r="P4" s="3">
+        <v>15453</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>14239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -807,8 +1028,44 @@
       <c r="D5" s="2">
         <v>34159</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="3">
+        <v>145950</v>
+      </c>
+      <c r="G5" s="3">
+        <v>143028</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4451</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3715</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2650</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2253</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="3">
+        <v>704141</v>
+      </c>
+      <c r="N5" s="3">
+        <v>29975</v>
+      </c>
+      <c r="O5" s="3">
+        <v>28383</v>
+      </c>
+      <c r="P5" s="3">
+        <v>15451</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>13803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -821,8 +1078,44 @@
       <c r="D6" s="2">
         <v>81507</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="3">
+        <v>170956</v>
+      </c>
+      <c r="G6" s="3">
+        <v>158845</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4825</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3951</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2885</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2373</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1630111</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1610607</v>
+      </c>
+      <c r="N6" s="3">
+        <v>75926</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="P6" s="3">
+        <v>39678</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>36571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -835,8 +1128,44 @@
       <c r="D7" s="2">
         <v>36864</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="3">
+        <v>121058</v>
+      </c>
+      <c r="G7" s="3">
+        <v>122078</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3703</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2808</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2003</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1611</v>
+      </c>
+      <c r="L7" s="3">
+        <v>736378</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N7" s="3">
+        <v>31399</v>
+      </c>
+      <c r="O7" s="3">
+        <v>29197</v>
+      </c>
+      <c r="P7" s="3">
+        <v>17130</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>16121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -849,8 +1178,44 @@
       <c r="D8" s="2">
         <v>106942</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="3">
+        <v>345106</v>
+      </c>
+      <c r="G8" s="3">
+        <v>359290</v>
+      </c>
+      <c r="H8" s="3">
+        <v>11433</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10533</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8884</v>
+      </c>
+      <c r="K8" s="3">
+        <v>7029</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1798651</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1832092</v>
+      </c>
+      <c r="N8" s="3">
+        <v>83519</v>
+      </c>
+      <c r="O8" s="3">
+        <v>79445</v>
+      </c>
+      <c r="P8" s="3">
+        <v>47261</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>43768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -863,8 +1228,44 @@
       <c r="D9" s="2">
         <v>33789</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="3">
+        <v>83200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>71208</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2201</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1913</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1564</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1317</v>
+      </c>
+      <c r="L9" s="3">
+        <v>749193</v>
+      </c>
+      <c r="M9" s="3">
+        <v>794957</v>
+      </c>
+      <c r="N9" s="3">
+        <v>24105</v>
+      </c>
+      <c r="O9" s="3">
+        <v>22700</v>
+      </c>
+      <c r="P9" s="3">
+        <v>15833</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>15075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -877,8 +1278,44 @@
       <c r="D10" s="2">
         <v>54894</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="3">
+        <v>121557</v>
+      </c>
+      <c r="G10" s="3">
+        <v>119531</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4963</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4163</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2833</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2311</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1211938</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1213286</v>
+      </c>
+      <c r="N10" s="3">
+        <v>52462</v>
+      </c>
+      <c r="O10" s="3">
+        <v>49032</v>
+      </c>
+      <c r="P10" s="3">
+        <v>26084</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>23656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -891,8 +1328,44 @@
       <c r="D11" s="2">
         <v>42124</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="3">
+        <v>109389</v>
+      </c>
+      <c r="G11" s="3">
+        <v>109967</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2992</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1670</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1426</v>
+      </c>
+      <c r="L11" s="3">
+        <v>953685</v>
+      </c>
+      <c r="M11" s="3">
+        <v>955501</v>
+      </c>
+      <c r="N11" s="3">
+        <v>44095</v>
+      </c>
+      <c r="O11" s="3">
+        <v>40388</v>
+      </c>
+      <c r="P11" s="3">
+        <v>20318</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>18808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -905,8 +1378,44 @@
       <c r="D12" s="2">
         <v>76555</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="3">
+        <v>105483</v>
+      </c>
+      <c r="G12" s="3">
+        <v>102948</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6109</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5925</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5325</v>
+      </c>
+      <c r="K12" s="3">
+        <v>4498</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" s="3">
+        <v>873122</v>
+      </c>
+      <c r="N12" s="3">
+        <v>55274</v>
+      </c>
+      <c r="O12" s="3">
+        <v>53096</v>
+      </c>
+      <c r="P12" s="3">
+        <v>34380</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>32352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -919,8 +1428,44 @@
       <c r="D13" s="2">
         <v>81879</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" s="3">
+        <v>118633</v>
+      </c>
+      <c r="G13" s="3">
+        <v>121571</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3835</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3286</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2479</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1956</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1572936</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1595490</v>
+      </c>
+      <c r="N13" s="3">
+        <v>76428</v>
+      </c>
+      <c r="O13" s="3">
+        <v>71969</v>
+      </c>
+      <c r="P13" s="3">
+        <v>40624</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>36820</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -933,8 +1478,44 @@
       <c r="D14" s="2">
         <v>627292</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" s="3">
+        <v>1533303</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1510546</v>
+      </c>
+      <c r="H14" s="3">
+        <v>53389</v>
+      </c>
+      <c r="I14" s="3">
+        <v>46683</v>
+      </c>
+      <c r="J14" s="3">
+        <v>38603</v>
+      </c>
+      <c r="K14" s="3">
+        <v>31374</v>
+      </c>
+      <c r="L14" s="3">
+        <v>11771109</v>
+      </c>
+      <c r="M14" s="3">
+        <v>11822201</v>
+      </c>
+      <c r="N14" s="3">
+        <v>529927</v>
+      </c>
+      <c r="O14" s="3">
+        <v>498800</v>
+      </c>
+      <c r="P14" s="3">
+        <v>290618</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>266607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -947,8 +1528,44 @@
       <c r="D15" s="2">
         <v>32361</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" s="3">
+        <v>73097</v>
+      </c>
+      <c r="G15" s="3">
+        <v>64466</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2973</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2683</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2456</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1234</v>
+      </c>
+      <c r="L15" s="3">
+        <v>795308</v>
+      </c>
+      <c r="M15" s="3">
+        <v>757469</v>
+      </c>
+      <c r="N15" s="3">
+        <v>26437</v>
+      </c>
+      <c r="O15" s="3">
+        <v>24102</v>
+      </c>
+      <c r="P15" s="3">
+        <v>15401</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>13270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -961,8 +1578,44 @@
       <c r="D16" s="2">
         <v>15697</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="3">
+        <v>370193</v>
+      </c>
+      <c r="G16" s="3">
+        <v>394418</v>
+      </c>
+      <c r="H16" s="3">
+        <v>11215</v>
+      </c>
+      <c r="I16" s="3">
+        <v>9994</v>
+      </c>
+      <c r="J16" s="3">
+        <v>8262</v>
+      </c>
+      <c r="K16" s="3">
+        <v>7435</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -975,8 +1628,44 @@
       <c r="D17" s="2">
         <v>26916</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="3">
+        <v>52759</v>
+      </c>
+      <c r="G17" s="3">
+        <v>52565</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1463</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1396</v>
+      </c>
+      <c r="J17" s="3">
+        <v>857</v>
+      </c>
+      <c r="K17" s="3">
+        <v>805</v>
+      </c>
+      <c r="L17" s="3">
+        <v>525777</v>
+      </c>
+      <c r="M17" s="3">
+        <v>542882</v>
+      </c>
+      <c r="N17" s="3">
+        <v>21380</v>
+      </c>
+      <c r="O17" s="3">
+        <v>20795</v>
+      </c>
+      <c r="P17" s="3">
+        <v>12504</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>12750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -989,8 +1678,44 @@
       <c r="D18" s="2">
         <v>17384</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="3">
+        <v>24720</v>
+      </c>
+      <c r="G18" s="3">
+        <v>26937</v>
+      </c>
+      <c r="H18" s="3">
+        <v>785</v>
+      </c>
+      <c r="I18" s="3">
+        <v>763</v>
+      </c>
+      <c r="J18" s="3">
+        <v>579</v>
+      </c>
+      <c r="K18" s="3">
+        <v>451</v>
+      </c>
+      <c r="L18" s="3">
+        <v>508939</v>
+      </c>
+      <c r="M18" s="3">
+        <v>508848</v>
+      </c>
+      <c r="N18" s="3">
+        <v>16834</v>
+      </c>
+      <c r="O18" s="3">
+        <v>15868</v>
+      </c>
+      <c r="P18" s="3">
+        <v>8316</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>8038</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1003,8 +1728,44 @@
       <c r="D19" s="2">
         <v>11340</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="3">
+        <v>43012</v>
+      </c>
+      <c r="G19" s="3">
+        <v>42588</v>
+      </c>
+      <c r="H19" s="3">
+        <v>926</v>
+      </c>
+      <c r="I19" s="3">
+        <v>704</v>
+      </c>
+      <c r="J19" s="3">
+        <v>591</v>
+      </c>
+      <c r="K19" s="3">
+        <v>553</v>
+      </c>
+      <c r="L19" s="3">
+        <v>322424</v>
+      </c>
+      <c r="M19" s="3">
+        <v>313837</v>
+      </c>
+      <c r="N19" s="3">
+        <v>9647</v>
+      </c>
+      <c r="O19" s="3">
+        <v>8849</v>
+      </c>
+      <c r="P19" s="3">
+        <v>5238</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>4958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1017,8 +1778,44 @@
       <c r="D20" s="2">
         <v>30480</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="3">
+        <v>83109</v>
+      </c>
+      <c r="G20" s="3">
+        <v>83546</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2086</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1672</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1558</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1375</v>
+      </c>
+      <c r="L20" s="3">
+        <v>656009</v>
+      </c>
+      <c r="M20" s="3">
+        <v>658104</v>
+      </c>
+      <c r="N20" s="3">
+        <v>24298</v>
+      </c>
+      <c r="O20" s="3">
+        <v>23768</v>
+      </c>
+      <c r="P20" s="3">
+        <v>13684</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>13863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1031,8 +1828,44 @@
       <c r="D21" s="2">
         <v>44859</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="3">
+        <v>256872</v>
+      </c>
+      <c r="G21" s="3">
+        <v>275193</v>
+      </c>
+      <c r="H21" s="3">
+        <v>14564</v>
+      </c>
+      <c r="I21" s="3">
+        <v>14732</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6895</v>
+      </c>
+      <c r="K21" s="3">
+        <v>6073</v>
+      </c>
+      <c r="L21" s="3">
+        <v>626559</v>
+      </c>
+      <c r="M21" s="3">
+        <v>663430</v>
+      </c>
+      <c r="N21" s="3">
+        <v>29002</v>
+      </c>
+      <c r="O21" s="3">
+        <v>27601</v>
+      </c>
+      <c r="P21" s="3">
+        <v>15788</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>16103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1045,8 +1878,44 @@
       <c r="D22" s="2">
         <v>14687</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="3">
+        <v>42370</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45622</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1156</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1016</v>
+      </c>
+      <c r="J22" s="3">
+        <v>566</v>
+      </c>
+      <c r="K22" s="3">
+        <v>608</v>
+      </c>
+      <c r="L22" s="3">
+        <v>328829</v>
+      </c>
+      <c r="M22" s="3">
+        <v>332938</v>
+      </c>
+      <c r="N22" s="3">
+        <v>10689</v>
+      </c>
+      <c r="O22" s="3">
+        <v>10508</v>
+      </c>
+      <c r="P22" s="3">
+        <v>6828</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>6685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1059,8 +1928,44 @@
       <c r="D23" s="2">
         <v>21551</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="3">
+        <v>41427</v>
+      </c>
+      <c r="G23" s="3">
+        <v>41771</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2104</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2136</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1147</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1221</v>
+      </c>
+      <c r="L23" s="3">
+        <v>509151</v>
+      </c>
+      <c r="M23" s="3">
+        <v>502846</v>
+      </c>
+      <c r="N23" s="3">
+        <v>18397</v>
+      </c>
+      <c r="O23" s="3">
+        <v>17898</v>
+      </c>
+      <c r="P23" s="3">
+        <v>9282</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>9907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1073,8 +1978,44 @@
       <c r="D24" s="2">
         <v>13303</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="3">
+        <v>38821</v>
+      </c>
+      <c r="G24" s="3">
+        <v>35876</v>
+      </c>
+      <c r="H24" s="3">
+        <v>767</v>
+      </c>
+      <c r="I24" s="3">
+        <v>792</v>
+      </c>
+      <c r="J24" s="3">
+        <v>651</v>
+      </c>
+      <c r="K24" s="3">
+        <v>691</v>
+      </c>
+      <c r="L24" s="3">
+        <v>265476</v>
+      </c>
+      <c r="M24" s="3">
+        <v>288597</v>
+      </c>
+      <c r="N24" s="3">
+        <v>8519</v>
+      </c>
+      <c r="O24" s="3">
+        <v>8403</v>
+      </c>
+      <c r="P24" s="3">
+        <v>5833</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1087,8 +2028,44 @@
       <c r="D25" s="2">
         <v>21145</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="3">
+        <v>50851</v>
+      </c>
+      <c r="G25" s="3">
+        <v>47590</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1404</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1314</v>
+      </c>
+      <c r="J25" s="3">
+        <v>974</v>
+      </c>
+      <c r="K25" s="3">
+        <v>822</v>
+      </c>
+      <c r="L25" s="3">
+        <v>444218</v>
+      </c>
+      <c r="M25" s="3">
+        <v>443649</v>
+      </c>
+      <c r="N25" s="3">
+        <v>17371</v>
+      </c>
+      <c r="O25" s="3">
+        <v>17474</v>
+      </c>
+      <c r="P25" s="3">
+        <v>9607</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>9742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1101,8 +2078,44 @@
       <c r="D26" s="2">
         <v>249729</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="3">
+        <v>1077231</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1110572</v>
+      </c>
+      <c r="H26" s="3">
+        <v>39443</v>
+      </c>
+      <c r="I26" s="3">
+        <v>37202</v>
+      </c>
+      <c r="J26" s="3">
+        <v>24536</v>
+      </c>
+      <c r="K26" s="3">
+        <v>21268</v>
+      </c>
+      <c r="L26" s="3">
+        <v>4982600</v>
+      </c>
+      <c r="M26" s="3">
+        <v>5012600</v>
+      </c>
+      <c r="N26" s="3">
+        <v>182574</v>
+      </c>
+      <c r="O26" s="3">
+        <v>175266</v>
+      </c>
+      <c r="P26" s="3">
+        <v>102481</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>101444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1115,8 +2128,44 @@
       <c r="D27" s="2">
         <v>11515</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="3">
+        <v>87300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>84400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3023</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2892</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2098</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1659</v>
+      </c>
+      <c r="L27" s="3">
+        <v>259400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>283100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>5590</v>
+      </c>
+      <c r="O27" s="3">
+        <v>5320</v>
+      </c>
+      <c r="P27" s="3">
+        <v>4169</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1129,8 +2178,44 @@
       <c r="D28" s="2">
         <v>27067</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="3">
+        <v>188132</v>
+      </c>
+      <c r="G28" s="3">
+        <v>191354</v>
+      </c>
+      <c r="H28" s="3">
+        <v>6667</v>
+      </c>
+      <c r="I28" s="3">
+        <v>6240</v>
+      </c>
+      <c r="J28" s="3">
+        <v>5696</v>
+      </c>
+      <c r="K28" s="3">
+        <v>4716</v>
+      </c>
+      <c r="L28" s="3">
+        <v>501521</v>
+      </c>
+      <c r="M28" s="3">
+        <v>537672</v>
+      </c>
+      <c r="N28" s="3">
+        <v>11670</v>
+      </c>
+      <c r="O28" s="3">
+        <v>10796</v>
+      </c>
+      <c r="P28" s="3">
+        <v>8483</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>8172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1143,8 +2228,44 @@
       <c r="D29" s="2">
         <v>8730</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="3">
+        <v>41700</v>
+      </c>
+      <c r="G29" s="3">
+        <v>40915</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1347</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1240</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1122</v>
+      </c>
+      <c r="K29" s="3">
+        <v>933</v>
+      </c>
+      <c r="L29" s="3">
+        <v>182524</v>
+      </c>
+      <c r="M29" s="3">
+        <v>190984</v>
+      </c>
+      <c r="N29" s="3">
+        <v>4911</v>
+      </c>
+      <c r="O29" s="3">
+        <v>4757</v>
+      </c>
+      <c r="P29" s="3">
+        <v>3351</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1157,8 +2278,44 @@
       <c r="D30" s="2">
         <v>47312</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="3">
+        <v>317132</v>
+      </c>
+      <c r="G30" s="3">
+        <v>316669</v>
+      </c>
+      <c r="H30" s="3">
+        <v>11037</v>
+      </c>
+      <c r="I30" s="3">
+        <v>10372</v>
+      </c>
+      <c r="J30" s="3">
+        <v>8910</v>
+      </c>
+      <c r="K30" s="3">
+        <v>7308</v>
+      </c>
+      <c r="L30" s="3">
+        <v>943445</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1011756</v>
+      </c>
+      <c r="N30" s="3">
+        <v>22171</v>
+      </c>
+      <c r="O30" s="3">
+        <v>20873</v>
+      </c>
+      <c r="P30" s="3">
+        <v>16003</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>15035</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1171,9 +2328,44 @@
       <c r="D31" s="2">
         <v>59964</v>
       </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="3">
+        <v>139305</v>
+      </c>
+      <c r="G31" s="3">
+        <v>131256</v>
+      </c>
+      <c r="H31" s="3">
+        <v>5250</v>
+      </c>
+      <c r="I31" s="3">
+        <v>4588</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3772</v>
+      </c>
+      <c r="K31" s="3">
+        <v>3194</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1045337</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1001905</v>
+      </c>
+      <c r="N31" s="3">
+        <v>50151</v>
+      </c>
+      <c r="O31" s="3">
+        <v>47206</v>
+      </c>
+      <c r="P31" s="3">
+        <v>27926</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>25072</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1186,8 +2378,44 @@
       <c r="D32" s="2">
         <v>56235</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" s="3">
+        <v>129534</v>
+      </c>
+      <c r="G32" s="3">
+        <v>116631</v>
+      </c>
+      <c r="H32" s="3">
+        <v>5174</v>
+      </c>
+      <c r="I32" s="3">
+        <v>4894</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4238</v>
+      </c>
+      <c r="K32" s="3">
+        <v>3707</v>
+      </c>
+      <c r="L32" s="3">
+        <v>847103</v>
+      </c>
+      <c r="M32" s="3">
+        <v>881445</v>
+      </c>
+      <c r="N32" s="3">
+        <v>39390</v>
+      </c>
+      <c r="O32" s="3">
+        <v>37138</v>
+      </c>
+      <c r="P32" s="3">
+        <v>24788</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>23502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1200,8 +2428,44 @@
       <c r="D33" s="2">
         <v>43611</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="3">
+        <v>33366</v>
+      </c>
+      <c r="G33" s="3">
+        <v>32819</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1454</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1360</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1056</v>
+      </c>
+      <c r="K33" s="3">
+        <v>901</v>
+      </c>
+      <c r="L33" s="3">
+        <v>698343</v>
+      </c>
+      <c r="M33" s="3">
+        <v>765705</v>
+      </c>
+      <c r="N33" s="3">
+        <v>36405</v>
+      </c>
+      <c r="O33" s="3">
+        <v>34326</v>
+      </c>
+      <c r="P33" s="3">
+        <v>21730</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>19924</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1214,8 +2478,44 @@
       <c r="D34" s="2">
         <v>101440</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="3">
+        <v>72500</v>
+      </c>
+      <c r="G34" s="3">
+        <v>66164</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2641</v>
+      </c>
+      <c r="I34" s="3">
+        <v>2434</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2240</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1902</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1599366</v>
+      </c>
+      <c r="M34" s="3">
+        <v>1575514</v>
+      </c>
+      <c r="N34" s="3">
+        <v>88158</v>
+      </c>
+      <c r="O34" s="3">
+        <v>84722</v>
+      </c>
+      <c r="P34" s="3">
+        <v>49579</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>47719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1228,8 +2528,44 @@
       <c r="D35" s="2">
         <v>126030</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" s="3">
+        <v>54619</v>
+      </c>
+      <c r="G35" s="3">
+        <v>54818</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2116</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2084</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2042</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1698</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1685715</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1762267</v>
+      </c>
+      <c r="N35" s="3">
+        <v>94445</v>
+      </c>
+      <c r="O35" s="3">
+        <v>91115</v>
+      </c>
+      <c r="P35" s="3">
+        <v>62092</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>60198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1242,8 +2578,44 @@
       <c r="D36" s="2">
         <v>78449</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" s="3">
+        <v>213213</v>
+      </c>
+      <c r="G36" s="3">
+        <v>189145</v>
+      </c>
+      <c r="H36" s="3">
+        <v>8756</v>
+      </c>
+      <c r="I36" s="3">
+        <v>8271</v>
+      </c>
+      <c r="J36" s="3">
+        <v>5940</v>
+      </c>
+      <c r="K36" s="3">
+        <v>4616</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1330503</v>
+      </c>
+      <c r="M36" s="3">
+        <v>1180431</v>
+      </c>
+      <c r="N36" s="3">
+        <v>72223</v>
+      </c>
+      <c r="O36" s="3">
+        <v>68156</v>
+      </c>
+      <c r="P36" s="3">
+        <v>36193</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>31700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1256,8 +2628,44 @@
       <c r="D37" s="2">
         <v>78143</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" s="3">
+        <v>115262</v>
+      </c>
+      <c r="G37" s="3">
+        <v>121255</v>
+      </c>
+      <c r="H37" s="3">
+        <v>4094</v>
+      </c>
+      <c r="I37" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J37" s="3">
+        <v>3263</v>
+      </c>
+      <c r="K37" s="3">
+        <v>3361</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1151830</v>
+      </c>
+      <c r="M37" s="3">
+        <v>1156649</v>
+      </c>
+      <c r="N37" s="3">
+        <v>53074</v>
+      </c>
+      <c r="O37" s="3">
+        <v>51201</v>
+      </c>
+      <c r="P37" s="3">
+        <v>35022</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>36507</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1270,8 +2678,44 @@
       <c r="D38" s="2">
         <v>44547</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" s="3">
+        <v>48512</v>
+      </c>
+      <c r="G38" s="3">
+        <v>46181</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1731</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1578</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1507</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1215</v>
+      </c>
+      <c r="L38" s="3">
+        <v>600763</v>
+      </c>
+      <c r="M38" s="3">
+        <v>690323</v>
+      </c>
+      <c r="N38" s="3">
+        <v>32379</v>
+      </c>
+      <c r="O38" s="3">
+        <v>32720</v>
+      </c>
+      <c r="P38" s="3">
+        <v>21199</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>20626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1284,8 +2728,44 @@
       <c r="D39" s="2">
         <v>45094</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" s="3">
+        <v>45499</v>
+      </c>
+      <c r="G39" s="3">
+        <v>47513</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2027</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1994</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1587</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1372</v>
+      </c>
+      <c r="L39" s="3">
+        <v>719150</v>
+      </c>
+      <c r="M39" s="3">
+        <v>822581</v>
+      </c>
+      <c r="N39" s="3">
+        <v>38063</v>
+      </c>
+      <c r="O39" s="3">
+        <v>36565</v>
+      </c>
+      <c r="P39" s="3">
+        <v>21665</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>20470</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1298,8 +2778,44 @@
       <c r="D40" s="2">
         <v>82020</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" s="3">
+        <v>119795</v>
+      </c>
+      <c r="G40" s="3">
+        <v>120958</v>
+      </c>
+      <c r="H40" s="3">
+        <v>3841</v>
+      </c>
+      <c r="I40" s="3">
+        <v>3997</v>
+      </c>
+      <c r="J40" s="3">
+        <v>2935</v>
+      </c>
+      <c r="K40" s="3">
+        <v>3286</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1311470</v>
+      </c>
+      <c r="M40" s="3">
+        <v>1322798</v>
+      </c>
+      <c r="N40" s="3">
+        <v>61935</v>
+      </c>
+      <c r="O40" s="3">
+        <v>66076</v>
+      </c>
+      <c r="P40" s="3">
+        <v>37429</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>38370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1312,8 +2828,44 @@
       <c r="D41" s="2">
         <v>52911</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" s="3">
+        <v>61029</v>
+      </c>
+      <c r="G41" s="3">
+        <v>56178</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2945</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2705</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2263</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1842</v>
+      </c>
+      <c r="L41" s="3">
+        <v>759637</v>
+      </c>
+      <c r="M41" s="3">
+        <v>807775</v>
+      </c>
+      <c r="N41" s="3">
+        <v>38204</v>
+      </c>
+      <c r="O41" s="3">
+        <v>36063</v>
+      </c>
+      <c r="P41" s="3">
+        <v>25918</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>22888</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1326,8 +2878,44 @@
       <c r="D42" s="2">
         <v>37695</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" s="3">
+        <v>754676</v>
+      </c>
+      <c r="G42" s="3">
+        <v>605210</v>
+      </c>
+      <c r="H42" s="3">
+        <v>22888</v>
+      </c>
+      <c r="I42" s="3">
+        <v>21641</v>
+      </c>
+      <c r="J42" s="3">
+        <v>20928</v>
+      </c>
+      <c r="K42" s="3">
+        <v>16767</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1340,8 +2928,44 @@
       <c r="D43" s="2">
         <v>64499</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" s="3">
+        <v>68661</v>
+      </c>
+      <c r="G43" s="3">
+        <v>67128</v>
+      </c>
+      <c r="H43" s="3">
+        <v>3451</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3103</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2703</v>
+      </c>
+      <c r="K43" s="3">
+        <v>2188</v>
+      </c>
+      <c r="L43" s="3">
+        <v>850361</v>
+      </c>
+      <c r="M43" s="3">
+        <v>917762</v>
+      </c>
+      <c r="N43" s="3">
+        <v>45426</v>
+      </c>
+      <c r="O43" s="3">
+        <v>43245</v>
+      </c>
+      <c r="P43" s="3">
+        <v>30973</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>28636</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1354,8 +2978,44 @@
       <c r="D44" s="2">
         <v>40733</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" s="3">
+        <v>43628</v>
+      </c>
+      <c r="G44" s="3">
+        <v>43977</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1653</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1569</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1543</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1273</v>
+      </c>
+      <c r="L44" s="3">
+        <v>694450</v>
+      </c>
+      <c r="M44" s="3">
+        <v>760020</v>
+      </c>
+      <c r="N44" s="3">
+        <v>32219</v>
+      </c>
+      <c r="O44" s="3">
+        <v>30827</v>
+      </c>
+      <c r="P44" s="3">
+        <v>19868</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>18049</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1368,8 +3028,44 @@
       <c r="D45" s="2">
         <v>13380</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" s="3">
+        <v>14784</v>
+      </c>
+      <c r="G45" s="3">
+        <v>15382</v>
+      </c>
+      <c r="H45" s="3">
+        <v>661</v>
+      </c>
+      <c r="I45" s="3">
+        <v>586</v>
+      </c>
+      <c r="J45" s="3">
+        <v>453</v>
+      </c>
+      <c r="K45" s="3">
+        <v>419</v>
+      </c>
+      <c r="L45" s="3">
+        <v>189923</v>
+      </c>
+      <c r="M45" s="3">
+        <v>199156</v>
+      </c>
+      <c r="N45" s="3">
+        <v>9364</v>
+      </c>
+      <c r="O45" s="3">
+        <v>9073</v>
+      </c>
+      <c r="P45" s="3">
+        <v>6485</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>6023</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1382,8 +3078,44 @@
       <c r="D46" s="2">
         <v>76494</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" s="3">
+        <v>146439</v>
+      </c>
+      <c r="G46" s="3">
+        <v>131091</v>
+      </c>
+      <c r="H46" s="3">
+        <v>6156</v>
+      </c>
+      <c r="I46" s="3">
+        <v>5703</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3873</v>
+      </c>
+      <c r="K46" s="3">
+        <v>3573</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1096792</v>
+      </c>
+      <c r="M46" s="3">
+        <v>1089542</v>
+      </c>
+      <c r="N46" s="3">
+        <v>56081</v>
+      </c>
+      <c r="O46" s="3">
+        <v>53005</v>
+      </c>
+      <c r="P46" s="3">
+        <v>35267</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>33781</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1396,8 +3128,44 @@
       <c r="D47" s="2">
         <v>58868</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47" s="3">
+        <v>74608</v>
+      </c>
+      <c r="G47" s="3">
+        <v>72884</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3962</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3699</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2945</v>
+      </c>
+      <c r="K47" s="3">
+        <v>2614</v>
+      </c>
+      <c r="L47" s="3">
+        <v>822277</v>
+      </c>
+      <c r="M47" s="3">
+        <v>849390</v>
+      </c>
+      <c r="N47" s="3">
+        <v>45650</v>
+      </c>
+      <c r="O47" s="3">
+        <v>44367</v>
+      </c>
+      <c r="P47" s="3">
+        <v>27011</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>26298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1410,8 +3178,44 @@
       <c r="D48" s="2">
         <v>143732</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" s="3">
+        <v>94582</v>
+      </c>
+      <c r="G48" s="3">
+        <v>88530</v>
+      </c>
+      <c r="H48" s="3">
+        <v>4266</v>
+      </c>
+      <c r="I48" s="3">
+        <v>4284</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K48" s="3">
+        <v>3531</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1605129</v>
+      </c>
+      <c r="M48" s="3">
+        <v>1748050</v>
+      </c>
+      <c r="N48" s="3">
+        <v>101573</v>
+      </c>
+      <c r="O48" s="3">
+        <v>97172</v>
+      </c>
+      <c r="P48" s="3">
+        <v>70331</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>65690</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1424,8 +3228,44 @@
       <c r="D49" s="2">
         <v>73269</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" s="3">
+        <v>160009</v>
+      </c>
+      <c r="G49" s="3">
+        <v>160515</v>
+      </c>
+      <c r="H49" s="3">
+        <v>6794</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6383</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4942</v>
+      </c>
+      <c r="K49" s="3">
+        <v>3927</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1528693</v>
+      </c>
+      <c r="M49" s="3">
+        <v>1528088</v>
+      </c>
+      <c r="N49" s="3">
+        <v>64028</v>
+      </c>
+      <c r="O49" s="3">
+        <v>60181</v>
+      </c>
+      <c r="P49" s="3">
+        <v>32951</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>31449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -1438,8 +3278,44 @@
       <c r="D50" s="2">
         <v>32525</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" s="3">
+        <v>46872</v>
+      </c>
+      <c r="G50" s="3">
+        <v>47640</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1832</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1827</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1510</v>
+      </c>
+      <c r="K50" s="3">
+        <v>1369</v>
+      </c>
+      <c r="L50" s="3">
+        <v>599774</v>
+      </c>
+      <c r="M50" s="3">
+        <v>635839</v>
+      </c>
+      <c r="N50" s="3">
+        <v>27461</v>
+      </c>
+      <c r="O50" s="3">
+        <v>45766</v>
+      </c>
+      <c r="P50" s="3">
+        <v>15572</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>14074</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1452,8 +3328,44 @@
       <c r="D51" s="2">
         <v>67181</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" s="3">
+        <v>72423</v>
+      </c>
+      <c r="G51" s="3">
+        <v>65432</v>
+      </c>
+      <c r="H51" s="3">
+        <v>3381</v>
+      </c>
+      <c r="I51" s="3">
+        <v>3336</v>
+      </c>
+      <c r="J51" s="3">
+        <v>2785</v>
+      </c>
+      <c r="K51" s="3">
+        <v>2552</v>
+      </c>
+      <c r="L51" s="3">
+        <v>1125760</v>
+      </c>
+      <c r="M51" s="3">
+        <v>1140548</v>
+      </c>
+      <c r="N51" s="3">
+        <v>53348</v>
+      </c>
+      <c r="O51" s="3">
+        <v>50946</v>
+      </c>
+      <c r="P51" s="3">
+        <v>31895</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>29949</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1466,8 +3378,44 @@
       <c r="D52" s="2">
         <v>124110</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" s="3">
+        <v>83033</v>
+      </c>
+      <c r="G52" s="3">
+        <v>87824</v>
+      </c>
+      <c r="H52" s="3">
+        <v>5878</v>
+      </c>
+      <c r="I52" s="3">
+        <v>5755</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K52" s="3">
+        <v>4823</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1602621</v>
+      </c>
+      <c r="M52" s="3">
+        <v>1640564</v>
+      </c>
+      <c r="N52" s="3">
+        <v>85884</v>
+      </c>
+      <c r="O52" s="3">
+        <v>80899</v>
+      </c>
+      <c r="P52" s="3">
+        <v>57666</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>55908</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -1480,8 +3428,44 @@
       <c r="D53" s="2">
         <v>33095</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" s="3">
+        <v>260397</v>
+      </c>
+      <c r="G53" s="3">
+        <v>157697</v>
+      </c>
+      <c r="H53" s="3">
+        <v>8127</v>
+      </c>
+      <c r="I53" s="3">
+        <v>7607</v>
+      </c>
+      <c r="J53" s="3">
+        <v>6820</v>
+      </c>
+      <c r="K53" s="3">
+        <v>5433</v>
+      </c>
+      <c r="L53" s="3">
+        <v>404678</v>
+      </c>
+      <c r="M53" s="3">
+        <v>390731</v>
+      </c>
+      <c r="N53" s="3">
+        <v>14453</v>
+      </c>
+      <c r="O53" s="3">
+        <v>13728</v>
+      </c>
+      <c r="P53" s="3">
+        <v>10823</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>10019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1494,8 +3478,44 @@
       <c r="D54" s="2">
         <v>37213</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54" s="3">
+        <v>805300</v>
+      </c>
+      <c r="G54" s="3">
+        <v>677700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>23253</v>
+      </c>
+      <c r="I54" s="3">
+        <v>22633</v>
+      </c>
+      <c r="J54" s="3">
+        <v>20549</v>
+      </c>
+      <c r="K54" s="3">
+        <v>16664</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -1508,8 +3528,44 @@
       <c r="D55" s="2">
         <v>97738</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55" s="3">
+        <v>221268</v>
+      </c>
+      <c r="G55" s="3">
+        <v>247978</v>
+      </c>
+      <c r="H55" s="3">
+        <v>11009</v>
+      </c>
+      <c r="I55" s="3">
+        <v>10480</v>
+      </c>
+      <c r="J55" s="3">
+        <v>7906</v>
+      </c>
+      <c r="K55" s="3">
+        <v>6643</v>
+      </c>
+      <c r="L55" s="3">
+        <v>1240933</v>
+      </c>
+      <c r="M55" s="3">
+        <v>1262857</v>
+      </c>
+      <c r="N55" s="3">
+        <v>68963</v>
+      </c>
+      <c r="O55" s="3">
+        <v>66574</v>
+      </c>
+      <c r="P55" s="3">
+        <v>42815</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>40374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -1522,8 +3578,44 @@
       <c r="D56" s="2">
         <v>57922</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" s="3">
+        <v>66741</v>
+      </c>
+      <c r="G56" s="3">
+        <v>68268</v>
+      </c>
+      <c r="H56" s="3">
+        <v>3671</v>
+      </c>
+      <c r="I56" s="3">
+        <v>3518</v>
+      </c>
+      <c r="J56" s="3">
+        <v>2955</v>
+      </c>
+      <c r="K56" s="3">
+        <v>2514</v>
+      </c>
+      <c r="L56" s="3">
+        <v>828357</v>
+      </c>
+      <c r="M56" s="3">
+        <v>843640</v>
+      </c>
+      <c r="N56" s="3">
+        <v>46915</v>
+      </c>
+      <c r="O56" s="3">
+        <v>44724</v>
+      </c>
+      <c r="P56" s="3">
+        <v>26913</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>25540</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1536,8 +3628,44 @@
       <c r="D57" s="2">
         <v>57599</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" s="3">
+        <v>90005</v>
+      </c>
+      <c r="G57" s="3">
+        <v>74004</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2285</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2175</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1938</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1636</v>
+      </c>
+      <c r="L57" s="3">
+        <v>852484</v>
+      </c>
+      <c r="M57" s="3">
+        <v>845669</v>
+      </c>
+      <c r="N57" s="3">
+        <v>46008</v>
+      </c>
+      <c r="O57" s="3">
+        <v>43500</v>
+      </c>
+      <c r="P57" s="3">
+        <v>28262</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>25763</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -1550,8 +3678,44 @@
       <c r="D58" s="2">
         <v>43923</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58" s="3">
+        <v>139878</v>
+      </c>
+      <c r="G58" s="3">
+        <v>118621</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4753</v>
+      </c>
+      <c r="I58" s="3">
+        <v>6369</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3342</v>
+      </c>
+      <c r="K58" s="3">
+        <v>3799</v>
+      </c>
+      <c r="L58" s="3">
+        <v>747052</v>
+      </c>
+      <c r="M58" s="3">
+        <v>712222</v>
+      </c>
+      <c r="N58" s="3">
+        <v>37046</v>
+      </c>
+      <c r="O58" s="3">
+        <v>33692</v>
+      </c>
+      <c r="P58" s="3">
+        <v>19464</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>17318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -1564,8 +3728,44 @@
       <c r="D59" s="2">
         <v>1131</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59" s="3">
+        <v>40231</v>
+      </c>
+      <c r="G59" s="3">
+        <v>20980</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1132</v>
+      </c>
+      <c r="I59" s="3">
+        <v>979</v>
+      </c>
+      <c r="J59" s="3">
+        <v>682</v>
+      </c>
+      <c r="K59" s="3">
+        <v>449</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -1578,8 +3778,44 @@
       <c r="D60" s="2">
         <v>100218</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60" s="3">
+        <v>120514</v>
+      </c>
+      <c r="G60" s="3">
+        <v>113280</v>
+      </c>
+      <c r="H60" s="3">
+        <v>5756</v>
+      </c>
+      <c r="I60" s="3">
+        <v>5637</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4322</v>
+      </c>
+      <c r="K60" s="3">
+        <v>3856</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1598440</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1617105</v>
+      </c>
+      <c r="N60" s="3">
+        <v>84044</v>
+      </c>
+      <c r="O60" s="3">
+        <v>81539</v>
+      </c>
+      <c r="P60" s="3">
+        <v>47176</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -1592,8 +3828,44 @@
       <c r="D61" s="2">
         <v>62303</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61" s="3">
+        <v>83781</v>
+      </c>
+      <c r="G61" s="3">
+        <v>84174</v>
+      </c>
+      <c r="H61" s="3">
+        <v>2141</v>
+      </c>
+      <c r="I61" s="3">
+        <v>2048</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1834</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1821</v>
+      </c>
+      <c r="L61" s="3">
+        <v>926810</v>
+      </c>
+      <c r="M61" s="3">
+        <v>1116668</v>
+      </c>
+      <c r="N61" s="3">
+        <v>49181</v>
+      </c>
+      <c r="O61" s="3">
+        <v>47062</v>
+      </c>
+      <c r="P61" s="3">
+        <v>30543</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>28105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -1606,8 +3878,44 @@
       <c r="D62" s="2">
         <v>56453</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62" s="3">
+        <v>96378</v>
+      </c>
+      <c r="G62" s="3">
+        <v>83815</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4229</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4143</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3210</v>
+      </c>
+      <c r="K62" s="3">
+        <v>2854</v>
+      </c>
+      <c r="L62" s="3">
+        <v>793525</v>
+      </c>
+      <c r="M62" s="3">
+        <v>809771</v>
+      </c>
+      <c r="N62" s="3">
+        <v>41235</v>
+      </c>
+      <c r="O62" s="3">
+        <v>39657</v>
+      </c>
+      <c r="P62" s="3">
+        <v>26546</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>23873</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -1620,8 +3928,44 @@
       <c r="D63" s="2">
         <v>78320</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63" s="3">
+        <v>73525</v>
+      </c>
+      <c r="G63" s="3">
+        <v>77001</v>
+      </c>
+      <c r="H63" s="3">
+        <v>4299</v>
+      </c>
+      <c r="I63" s="3">
+        <v>4181</v>
+      </c>
+      <c r="J63" s="3">
+        <v>3431</v>
+      </c>
+      <c r="K63" s="3">
+        <v>3058</v>
+      </c>
+      <c r="L63" s="3">
+        <v>1261967</v>
+      </c>
+      <c r="M63" s="3">
+        <v>1361169</v>
+      </c>
+      <c r="N63" s="3">
+        <v>62222</v>
+      </c>
+      <c r="O63" s="3">
+        <v>60294</v>
+      </c>
+      <c r="P63" s="3">
+        <v>36306</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>35525</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -1634,8 +3978,44 @@
       <c r="D64" s="2">
         <v>83039</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64" s="3">
+        <v>203488</v>
+      </c>
+      <c r="G64" s="3">
+        <v>192275</v>
+      </c>
+      <c r="H64" s="3">
+        <v>8276</v>
+      </c>
+      <c r="I64" s="3">
+        <v>7920</v>
+      </c>
+      <c r="J64" s="3">
+        <v>5648</v>
+      </c>
+      <c r="K64" s="3">
+        <v>4670</v>
+      </c>
+      <c r="L64" s="3">
+        <v>1404944</v>
+      </c>
+      <c r="M64" s="3">
+        <v>1345667</v>
+      </c>
+      <c r="N64" s="3">
+        <v>65549</v>
+      </c>
+      <c r="O64" s="3">
+        <v>61852</v>
+      </c>
+      <c r="P64" s="3">
+        <v>37227</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>35494</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -1648,8 +4028,44 @@
       <c r="D65" s="2">
         <v>64936</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65" s="3">
+        <v>107495</v>
+      </c>
+      <c r="G65" s="3">
+        <v>104147</v>
+      </c>
+      <c r="H65" s="3">
+        <v>3856</v>
+      </c>
+      <c r="I65" s="3">
+        <v>3702</v>
+      </c>
+      <c r="J65" s="3">
+        <v>2881</v>
+      </c>
+      <c r="K65" s="3">
+        <v>2311</v>
+      </c>
+      <c r="L65" s="3">
+        <v>1279885</v>
+      </c>
+      <c r="M65" s="3">
+        <v>1251792</v>
+      </c>
+      <c r="N65" s="3">
+        <v>62275</v>
+      </c>
+      <c r="O65" s="3">
+        <v>58904</v>
+      </c>
+      <c r="P65" s="3">
+        <v>32398</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>27346</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -1662,8 +4078,44 @@
       <c r="D66" s="2">
         <v>2943</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66" s="3">
+        <v>52145</v>
+      </c>
+      <c r="G66" s="3">
+        <v>49313</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2234</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2054</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1614</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1329</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -1676,8 +4128,44 @@
       <c r="D67" s="2">
         <v>10150</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67" s="3">
+        <v>247087</v>
+      </c>
+      <c r="G67" s="3">
+        <v>231469</v>
+      </c>
+      <c r="H67" s="3">
+        <v>7545</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J67" s="3">
+        <v>5769</v>
+      </c>
+      <c r="K67" s="3">
+        <v>4381</v>
+      </c>
+      <c r="L67" s="3">
+        <v>0</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0</v>
+      </c>
+      <c r="O67" s="3">
+        <v>0</v>
+      </c>
+      <c r="P67" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -1690,8 +4178,44 @@
       <c r="D68" s="2">
         <v>64873</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68" s="3">
+        <v>138612</v>
+      </c>
+      <c r="G68" s="3">
+        <v>135921</v>
+      </c>
+      <c r="H68" s="3">
+        <v>4678</v>
+      </c>
+      <c r="I68" s="3">
+        <v>4145</v>
+      </c>
+      <c r="J68" s="3">
+        <v>3284</v>
+      </c>
+      <c r="K68" s="3">
+        <v>2645</v>
+      </c>
+      <c r="L68" s="3">
+        <v>1239398</v>
+      </c>
+      <c r="M68" s="3">
+        <v>1222472</v>
+      </c>
+      <c r="N68" s="3">
+        <v>56857</v>
+      </c>
+      <c r="O68" s="3">
+        <v>53404</v>
+      </c>
+      <c r="P68" s="3">
+        <v>30310</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>28634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -1704,8 +4228,44 @@
       <c r="D69" s="2">
         <v>34782</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69" s="3">
+        <v>81766</v>
+      </c>
+      <c r="G69" s="3">
+        <v>79958</v>
+      </c>
+      <c r="H69" s="3">
+        <v>3880</v>
+      </c>
+      <c r="I69" s="3">
+        <v>3844</v>
+      </c>
+      <c r="J69" s="3">
+        <v>3482</v>
+      </c>
+      <c r="K69" s="3">
+        <v>2743</v>
+      </c>
+      <c r="L69" s="3">
+        <v>520333</v>
+      </c>
+      <c r="M69" s="3">
+        <v>579525</v>
+      </c>
+      <c r="N69" s="3">
+        <v>22792</v>
+      </c>
+      <c r="O69" s="3">
+        <v>21936</v>
+      </c>
+      <c r="P69" s="3">
+        <v>14284</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>14273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -1718,8 +4278,44 @@
       <c r="D70" s="2">
         <v>2387568</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F70" s="3">
+        <v>5420954</v>
+      </c>
+      <c r="G70" s="3">
+        <v>4885126</v>
+      </c>
+      <c r="H70" s="3">
+        <v>202075</v>
+      </c>
+      <c r="I70" s="3">
+        <v>194700</v>
+      </c>
+      <c r="J70" s="3">
+        <v>162085</v>
+      </c>
+      <c r="K70" s="3">
+        <v>136926</v>
+      </c>
+      <c r="L70" s="3">
+        <v>34963803</v>
+      </c>
+      <c r="M70" s="3">
+        <v>35835640</v>
+      </c>
+      <c r="N70" s="3">
+        <v>1783001</v>
+      </c>
+      <c r="O70" s="3">
+        <v>1707685</v>
+      </c>
+      <c r="P70" s="3">
+        <v>1074597</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>1013960</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -1732,8 +4328,44 @@
       <c r="D71" s="2">
         <v>96536</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F71" s="3">
+        <v>182606</v>
+      </c>
+      <c r="G71" s="3">
+        <v>163410</v>
+      </c>
+      <c r="H71" s="3">
+        <v>8569</v>
+      </c>
+      <c r="I71" s="3">
+        <v>7887</v>
+      </c>
+      <c r="J71" s="3">
+        <v>6923</v>
+      </c>
+      <c r="K71" s="3">
+        <v>5499</v>
+      </c>
+      <c r="L71" s="3">
+        <v>1336454</v>
+      </c>
+      <c r="M71" s="3">
+        <v>1295216</v>
+      </c>
+      <c r="N71" s="3">
+        <v>72962</v>
+      </c>
+      <c r="O71" s="3">
+        <v>69921</v>
+      </c>
+      <c r="P71" s="3">
+        <v>44660</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>39454</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -1746,8 +4378,44 @@
       <c r="D72" s="2">
         <v>3408437</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F72" s="3">
+        <v>8531226</v>
+      </c>
+      <c r="G72" s="3">
+        <v>7986323</v>
+      </c>
+      <c r="H72" s="3">
+        <v>314513</v>
+      </c>
+      <c r="I72" s="3">
+        <v>296844</v>
+      </c>
+      <c r="J72" s="3">
+        <v>241063</v>
+      </c>
+      <c r="K72" s="3">
+        <v>202375</v>
+      </c>
+      <c r="L72" s="3">
+        <v>53997501</v>
+      </c>
+      <c r="M72" s="3">
+        <v>54977413</v>
+      </c>
+      <c r="N72" s="3">
+        <v>2590635</v>
+      </c>
+      <c r="O72" s="3">
+        <v>2172495</v>
+      </c>
+      <c r="P72" s="3">
+        <v>1528359</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>1436640</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -1760,8 +4428,44 @@
       <c r="D73" s="2">
         <v>19453</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F73" s="3">
+        <v>100878</v>
+      </c>
+      <c r="G73" s="3">
+        <v>77879</v>
+      </c>
+      <c r="H73" s="3">
+        <v>519</v>
+      </c>
+      <c r="I73" s="3">
+        <v>390</v>
+      </c>
+      <c r="J73" s="3">
+        <v>2869</v>
+      </c>
+      <c r="K73" s="3">
+        <v>1979</v>
+      </c>
+      <c r="L73" s="3">
+        <v>438169</v>
+      </c>
+      <c r="M73" s="3">
+        <v>357600</v>
+      </c>
+      <c r="N73" s="3">
+        <v>14224</v>
+      </c>
+      <c r="O73" s="3">
+        <v>11758</v>
+      </c>
+      <c r="P73" s="3">
+        <v>7761</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>6844</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -1774,8 +4478,44 @@
       <c r="D74" s="2">
         <v>2349</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F74" s="3">
+        <v>15770</v>
+      </c>
+      <c r="G74" s="3">
+        <v>15775</v>
+      </c>
+      <c r="H74" s="3">
+        <v>425</v>
+      </c>
+      <c r="I74" s="3">
+        <v>432</v>
+      </c>
+      <c r="J74" s="3">
+        <v>258</v>
+      </c>
+      <c r="K74" s="3">
+        <v>266</v>
+      </c>
+      <c r="L74" s="3">
+        <v>62826</v>
+      </c>
+      <c r="M74" s="3">
+        <v>62094</v>
+      </c>
+      <c r="N74" s="3">
+        <v>1512</v>
+      </c>
+      <c r="O74" s="3">
+        <v>1439</v>
+      </c>
+      <c r="P74" s="3">
+        <v>963</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -1788,8 +4528,44 @@
       <c r="D75" s="2">
         <v>11834</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F75" s="3">
+        <v>35248</v>
+      </c>
+      <c r="G75" s="3">
+        <v>25110</v>
+      </c>
+      <c r="H75" s="3">
+        <v>807</v>
+      </c>
+      <c r="I75" s="3">
+        <v>784</v>
+      </c>
+      <c r="J75" s="3">
+        <v>621</v>
+      </c>
+      <c r="K75" s="3">
+        <v>510</v>
+      </c>
+      <c r="L75" s="3">
+        <v>296609</v>
+      </c>
+      <c r="M75" s="3">
+        <v>310548</v>
+      </c>
+      <c r="N75" s="3">
+        <v>6946</v>
+      </c>
+      <c r="O75" s="3">
+        <v>6743</v>
+      </c>
+      <c r="P75" s="3">
+        <v>5792</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>4911</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -1802,8 +4578,44 @@
       <c r="D76" s="2">
         <v>14595</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F76" s="3">
+        <v>57620</v>
+      </c>
+      <c r="G76" s="3">
+        <v>53511</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1082</v>
+      </c>
+      <c r="I76" s="3">
+        <v>966</v>
+      </c>
+      <c r="J76" s="3">
+        <v>950</v>
+      </c>
+      <c r="K76" s="3">
+        <v>729</v>
+      </c>
+      <c r="L76" s="3">
+        <v>516339</v>
+      </c>
+      <c r="M76" s="3">
+        <v>464615</v>
+      </c>
+      <c r="N76" s="3">
+        <v>10668</v>
+      </c>
+      <c r="O76" s="3">
+        <v>8890</v>
+      </c>
+      <c r="P76" s="3">
+        <v>7070</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>5846</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -1816,8 +4628,44 @@
       <c r="D77" s="2">
         <v>6541</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F77" s="3">
+        <v>21788</v>
+      </c>
+      <c r="G77" s="3">
+        <v>18281</v>
+      </c>
+      <c r="H77" s="3">
+        <v>373</v>
+      </c>
+      <c r="I77" s="3">
+        <v>311</v>
+      </c>
+      <c r="J77" s="3">
+        <v>202</v>
+      </c>
+      <c r="K77" s="3">
+        <v>204</v>
+      </c>
+      <c r="L77" s="3">
+        <v>164113</v>
+      </c>
+      <c r="M77" s="3">
+        <v>153109</v>
+      </c>
+      <c r="N77" s="3">
+        <v>6659</v>
+      </c>
+      <c r="O77" s="3">
+        <v>6302</v>
+      </c>
+      <c r="P77" s="3">
+        <v>3266</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -1830,8 +4678,44 @@
       <c r="D78" s="2">
         <v>71098</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F78" s="3">
+        <v>99089</v>
+      </c>
+      <c r="G78" s="3">
+        <v>92549</v>
+      </c>
+      <c r="H78" s="3">
+        <v>4747</v>
+      </c>
+      <c r="I78" s="3">
+        <v>4624</v>
+      </c>
+      <c r="J78" s="3">
+        <v>3665</v>
+      </c>
+      <c r="K78" s="3">
+        <v>2957</v>
+      </c>
+      <c r="L78" s="3">
+        <v>1146404</v>
+      </c>
+      <c r="M78" s="3">
+        <v>1120927</v>
+      </c>
+      <c r="N78" s="3">
+        <v>65401</v>
+      </c>
+      <c r="O78" s="3">
+        <v>61867</v>
+      </c>
+      <c r="P78" s="3">
+        <v>33507</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>30969</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -1844,8 +4728,44 @@
       <c r="D79" s="2">
         <v>14628</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F79" s="3">
+        <v>40921</v>
+      </c>
+      <c r="G79" s="3">
+        <v>25676</v>
+      </c>
+      <c r="H79" s="3">
+        <v>848</v>
+      </c>
+      <c r="I79" s="3">
+        <v>714</v>
+      </c>
+      <c r="J79" s="3">
+        <v>560</v>
+      </c>
+      <c r="K79" s="3">
+        <v>457</v>
+      </c>
+      <c r="L79" s="3">
+        <v>464610</v>
+      </c>
+      <c r="M79" s="3">
+        <v>408699</v>
+      </c>
+      <c r="N79" s="3">
+        <v>10528</v>
+      </c>
+      <c r="O79" s="3">
+        <v>12568</v>
+      </c>
+      <c r="P79" s="3">
+        <v>7044</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>6567</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -1858,8 +4778,44 @@
       <c r="D80" s="2">
         <v>36782</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F80" s="3">
+        <v>33950</v>
+      </c>
+      <c r="G80" s="3">
+        <v>32733</v>
+      </c>
+      <c r="H80" s="3">
+        <v>1378</v>
+      </c>
+      <c r="I80" s="3">
+        <v>1409</v>
+      </c>
+      <c r="J80" s="3">
+        <v>868</v>
+      </c>
+      <c r="K80" s="3">
+        <v>756</v>
+      </c>
+      <c r="L80" s="3">
+        <v>544773</v>
+      </c>
+      <c r="M80" s="3">
+        <v>525906</v>
+      </c>
+      <c r="N80" s="3">
+        <v>33864</v>
+      </c>
+      <c r="O80" s="3">
+        <v>32265</v>
+      </c>
+      <c r="P80" s="3">
+        <v>18202</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>16956</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -1872,8 +4828,44 @@
       <c r="D81" s="2">
         <v>23284</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F81" s="3">
+        <v>88310</v>
+      </c>
+      <c r="G81" s="3">
+        <v>75177</v>
+      </c>
+      <c r="H81" s="3">
+        <v>4055</v>
+      </c>
+      <c r="I81" s="3">
+        <v>3930</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2531</v>
+      </c>
+      <c r="K81" s="3">
+        <v>1940</v>
+      </c>
+      <c r="L81" s="3">
+        <v>473841</v>
+      </c>
+      <c r="M81" s="3">
+        <v>438587</v>
+      </c>
+      <c r="N81" s="3">
+        <v>18434</v>
+      </c>
+      <c r="O81" s="3">
+        <v>17000</v>
+      </c>
+      <c r="P81" s="3">
+        <v>9891</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>8922</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -1886,8 +4878,44 @@
       <c r="D82" s="2">
         <v>21166</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F82" s="3">
+        <v>200010</v>
+      </c>
+      <c r="G82" s="3">
+        <v>154917</v>
+      </c>
+      <c r="H82" s="3">
+        <v>6595</v>
+      </c>
+      <c r="I82" s="3">
+        <v>4175</v>
+      </c>
+      <c r="J82" s="3">
+        <v>2984</v>
+      </c>
+      <c r="K82" s="3">
+        <v>1721</v>
+      </c>
+      <c r="L82" s="3">
+        <v>437921</v>
+      </c>
+      <c r="M82" s="3">
+        <v>380604</v>
+      </c>
+      <c r="N82" s="3">
+        <v>16247</v>
+      </c>
+      <c r="O82" s="3">
+        <v>14382</v>
+      </c>
+      <c r="P82" s="3">
+        <v>8832</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>7629</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -1900,8 +4928,44 @@
       <c r="D83" s="2">
         <v>2052</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F83" s="3">
+        <v>34576</v>
+      </c>
+      <c r="G83" s="3">
+        <v>23548</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1019</v>
+      </c>
+      <c r="I83" s="3">
+        <v>976</v>
+      </c>
+      <c r="J83" s="3">
+        <v>681</v>
+      </c>
+      <c r="K83" s="3">
+        <v>509</v>
+      </c>
+      <c r="L83" s="3">
+        <v>33727</v>
+      </c>
+      <c r="M83" s="3">
+        <v>25576</v>
+      </c>
+      <c r="N83" s="3">
+        <v>1168</v>
+      </c>
+      <c r="O83" s="3">
+        <v>986</v>
+      </c>
+      <c r="P83" s="3">
+        <v>468</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -1914,8 +4978,44 @@
       <c r="D84" s="2">
         <v>21862</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F84" s="3">
+        <v>48128</v>
+      </c>
+      <c r="G84" s="3">
+        <v>34018</v>
+      </c>
+      <c r="H84" s="3">
+        <v>2111</v>
+      </c>
+      <c r="I84" s="3">
+        <v>1928</v>
+      </c>
+      <c r="J84" s="3">
+        <v>1153</v>
+      </c>
+      <c r="K84" s="3">
+        <v>1009</v>
+      </c>
+      <c r="L84" s="3">
+        <v>407903</v>
+      </c>
+      <c r="M84" s="3">
+        <v>365018</v>
+      </c>
+      <c r="N84" s="3">
+        <v>18626</v>
+      </c>
+      <c r="O84" s="3">
+        <v>13930</v>
+      </c>
+      <c r="P84" s="3">
+        <v>9762</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>9938</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -1928,8 +5028,44 @@
       <c r="D85" s="2">
         <v>245644</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F85" s="3">
+        <v>776288</v>
+      </c>
+      <c r="G85" s="3">
+        <v>629174</v>
+      </c>
+      <c r="H85" s="3">
+        <v>23969</v>
+      </c>
+      <c r="I85" s="3">
+        <v>20639</v>
+      </c>
+      <c r="J85" s="3">
+        <v>17342</v>
+      </c>
+      <c r="K85" s="3">
+        <v>13037</v>
+      </c>
+      <c r="L85" s="3">
+        <v>4987235</v>
+      </c>
+      <c r="M85" s="3">
+        <v>4613283</v>
+      </c>
+      <c r="N85" s="3">
+        <v>204277</v>
+      </c>
+      <c r="O85" s="3">
+        <v>188130</v>
+      </c>
+      <c r="P85" s="3">
+        <v>112558</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>102707</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -1942,8 +5078,44 @@
       <c r="D86" s="2">
         <v>6444</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F86" s="3">
+        <v>35207</v>
+      </c>
+      <c r="G86" s="3">
+        <v>21208</v>
+      </c>
+      <c r="H86" s="3">
+        <v>1152</v>
+      </c>
+      <c r="I86" s="3">
+        <v>1140</v>
+      </c>
+      <c r="J86" s="3">
+        <v>1226</v>
+      </c>
+      <c r="K86" s="3">
+        <v>879</v>
+      </c>
+      <c r="L86" s="3">
+        <v>57212</v>
+      </c>
+      <c r="M86" s="3">
+        <v>41009</v>
+      </c>
+      <c r="N86" s="3">
+        <v>2933</v>
+      </c>
+      <c r="O86" s="3">
+        <v>2720</v>
+      </c>
+      <c r="P86" s="3">
+        <v>2295</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -1956,8 +5128,44 @@
       <c r="D87" s="2">
         <v>30830</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F87" s="3">
+        <v>54498</v>
+      </c>
+      <c r="G87" s="3">
+        <v>44257</v>
+      </c>
+      <c r="H87" s="3">
+        <v>2512</v>
+      </c>
+      <c r="I87" s="3">
+        <v>2376</v>
+      </c>
+      <c r="J87" s="3">
+        <v>2214</v>
+      </c>
+      <c r="K87" s="3">
+        <v>1626</v>
+      </c>
+      <c r="L87" s="3">
+        <v>362078</v>
+      </c>
+      <c r="M87" s="3">
+        <v>326945</v>
+      </c>
+      <c r="N87" s="3">
+        <v>19868</v>
+      </c>
+      <c r="O87" s="3">
+        <v>19164</v>
+      </c>
+      <c r="P87" s="3">
+        <v>14324</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>12666</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -1970,8 +5178,44 @@
       <c r="D88" s="2">
         <v>15019</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -1984,8 +5228,44 @@
       <c r="D89" s="2">
         <v>21234</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F89" s="3">
+        <v>31389</v>
+      </c>
+      <c r="G89" s="3">
+        <v>32290</v>
+      </c>
+      <c r="H89" s="3">
+        <v>2164</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2180</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1833</v>
+      </c>
+      <c r="K89" s="3">
+        <v>1327</v>
+      </c>
+      <c r="L89" s="3">
+        <v>276702</v>
+      </c>
+      <c r="M89" s="3">
+        <v>242843</v>
+      </c>
+      <c r="N89" s="3">
+        <v>13062</v>
+      </c>
+      <c r="O89" s="3">
+        <v>12455</v>
+      </c>
+      <c r="P89" s="3">
+        <v>8820</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>9254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -1998,8 +5278,44 @@
       <c r="D90" s="2">
         <v>7834</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F90" s="3">
+        <v>125186</v>
+      </c>
+      <c r="G90" s="3">
+        <v>53818</v>
+      </c>
+      <c r="H90" s="3">
+        <v>1983</v>
+      </c>
+      <c r="I90" s="3">
+        <v>1601</v>
+      </c>
+      <c r="J90" s="3">
+        <v>1788</v>
+      </c>
+      <c r="K90" s="3">
+        <v>1151</v>
+      </c>
+      <c r="L90" s="3">
+        <v>201137</v>
+      </c>
+      <c r="M90" s="3">
+        <v>136626</v>
+      </c>
+      <c r="N90" s="3">
+        <v>4745</v>
+      </c>
+      <c r="O90" s="3">
+        <v>4070</v>
+      </c>
+      <c r="P90" s="3">
+        <v>2733</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -2012,8 +5328,44 @@
       <c r="D91" s="2">
         <v>73726</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F91" s="3">
+        <v>6063</v>
+      </c>
+      <c r="G91" s="3">
+        <v>53199</v>
+      </c>
+      <c r="H91" s="3">
+        <v>2341</v>
+      </c>
+      <c r="I91" s="3">
+        <v>2244</v>
+      </c>
+      <c r="J91" s="3">
+        <v>2257</v>
+      </c>
+      <c r="K91" s="3">
+        <v>1848</v>
+      </c>
+      <c r="L91" s="3">
+        <v>812246</v>
+      </c>
+      <c r="M91" s="3">
+        <v>821178</v>
+      </c>
+      <c r="N91" s="3">
+        <v>50296</v>
+      </c>
+      <c r="O91" s="3">
+        <v>48127</v>
+      </c>
+      <c r="P91" s="3">
+        <v>36066</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>33555</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -2026,8 +5378,44 @@
       <c r="D92" s="2">
         <v>84299</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F92" s="3">
+        <v>85991</v>
+      </c>
+      <c r="G92" s="3">
+        <v>84598</v>
+      </c>
+      <c r="H92" s="3">
+        <v>5993</v>
+      </c>
+      <c r="I92" s="3">
+        <v>5684</v>
+      </c>
+      <c r="J92" s="3">
+        <v>4620</v>
+      </c>
+      <c r="K92" s="3">
+        <v>4306</v>
+      </c>
+      <c r="L92" s="3">
+        <v>1294647</v>
+      </c>
+      <c r="M92" s="3">
+        <v>1290090</v>
+      </c>
+      <c r="N92" s="3">
+        <v>66803</v>
+      </c>
+      <c r="O92" s="3">
+        <v>66064</v>
+      </c>
+      <c r="P92" s="3">
+        <v>37342</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>38031</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -2040,8 +5428,44 @@
       <c r="D93" s="2">
         <v>6116</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F93" s="3">
+        <v>5609</v>
+      </c>
+      <c r="G93" s="3">
+        <v>4594</v>
+      </c>
+      <c r="H93" s="3">
+        <v>270</v>
+      </c>
+      <c r="I93" s="3">
+        <v>253</v>
+      </c>
+      <c r="J93" s="3">
+        <v>145</v>
+      </c>
+      <c r="K93" s="3">
+        <v>165</v>
+      </c>
+      <c r="L93" s="3">
+        <v>132529</v>
+      </c>
+      <c r="M93" s="3">
+        <v>126717</v>
+      </c>
+      <c r="N93" s="3">
+        <v>4295</v>
+      </c>
+      <c r="O93" s="3">
+        <v>3921</v>
+      </c>
+      <c r="P93" s="3">
+        <v>3050</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -2054,8 +5478,44 @@
       <c r="D94" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -2068,8 +5528,44 @@
       <c r="D95" s="2">
         <v>245502</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F95" s="3">
+        <v>398511</v>
+      </c>
+      <c r="G95" s="3">
+        <v>298964</v>
+      </c>
+      <c r="H95" s="3">
+        <v>16415</v>
+      </c>
+      <c r="I95" s="3">
+        <v>15428</v>
+      </c>
+      <c r="J95" s="3">
+        <v>14083</v>
+      </c>
+      <c r="K95" s="3">
+        <v>11302</v>
+      </c>
+      <c r="L95" s="3">
+        <v>3136551</v>
+      </c>
+      <c r="M95" s="3">
+        <v>2985408</v>
+      </c>
+      <c r="N95" s="3">
+        <v>162002</v>
+      </c>
+      <c r="O95" s="3">
+        <v>156521</v>
+      </c>
+      <c r="P95" s="3">
+        <v>104630</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>100468</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -2082,8 +5578,44 @@
       <c r="D96" s="2">
         <v>25193</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F96" s="3">
+        <v>75732</v>
+      </c>
+      <c r="G96" s="3">
+        <v>66707</v>
+      </c>
+      <c r="H96" s="3">
+        <v>3887</v>
+      </c>
+      <c r="I96" s="3">
+        <v>3749</v>
+      </c>
+      <c r="J96" s="3">
+        <v>3170</v>
+      </c>
+      <c r="K96" s="3">
+        <v>2827</v>
+      </c>
+      <c r="L96" s="3">
+        <v>444666</v>
+      </c>
+      <c r="M96" s="3">
+        <v>400900</v>
+      </c>
+      <c r="N96" s="3">
+        <v>17006</v>
+      </c>
+      <c r="O96" s="3">
+        <v>16665</v>
+      </c>
+      <c r="P96" s="3">
+        <v>9741</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>9455</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -2096,8 +5628,44 @@
       <c r="D97" s="2">
         <v>5499</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q97" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -2110,8 +5678,44 @@
       <c r="D98" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q98" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -2124,8 +5728,44 @@
       <c r="D99" s="2">
         <v>11008</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F99" s="3">
+        <v>28934</v>
+      </c>
+      <c r="G99" s="3">
+        <v>25613</v>
+      </c>
+      <c r="H99" s="3">
+        <v>1569</v>
+      </c>
+      <c r="I99" s="3">
+        <v>1514</v>
+      </c>
+      <c r="J99" s="3">
+        <v>1121</v>
+      </c>
+      <c r="K99" s="3">
+        <v>1023</v>
+      </c>
+      <c r="L99" s="3">
+        <v>380891</v>
+      </c>
+      <c r="M99" s="3">
+        <v>314255</v>
+      </c>
+      <c r="N99" s="3">
+        <v>7511</v>
+      </c>
+      <c r="O99" s="3">
+        <v>6229</v>
+      </c>
+      <c r="P99" s="3">
+        <v>4803</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -2138,8 +5778,44 @@
       <c r="D100" s="2">
         <v>17907</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F100" s="3">
+        <v>19887</v>
+      </c>
+      <c r="G100" s="3">
+        <v>41617</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1952</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1832</v>
+      </c>
+      <c r="J100" s="3">
+        <v>953</v>
+      </c>
+      <c r="K100" s="3">
+        <v>791</v>
+      </c>
+      <c r="L100" s="3">
+        <v>541296</v>
+      </c>
+      <c r="M100" s="3">
+        <v>434891</v>
+      </c>
+      <c r="N100" s="3">
+        <v>16440</v>
+      </c>
+      <c r="O100" s="3">
+        <v>13978</v>
+      </c>
+      <c r="P100" s="3">
+        <v>8777</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>7386</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -2152,8 +5828,44 @@
       <c r="D101" s="2">
         <v>34124</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F101" s="3">
+        <v>128848</v>
+      </c>
+      <c r="G101" s="3">
+        <v>107847</v>
+      </c>
+      <c r="H101" s="3">
+        <v>5698</v>
+      </c>
+      <c r="I101" s="3">
+        <v>4864</v>
+      </c>
+      <c r="J101" s="3">
+        <v>2743</v>
+      </c>
+      <c r="K101" s="3">
+        <v>1870</v>
+      </c>
+      <c r="L101" s="3">
+        <v>774680</v>
+      </c>
+      <c r="M101" s="3">
+        <v>656093</v>
+      </c>
+      <c r="N101" s="3">
+        <v>26538</v>
+      </c>
+      <c r="O101" s="3">
+        <v>22035</v>
+      </c>
+      <c r="P101" s="3">
+        <v>15797</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>13714</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -2166,8 +5878,44 @@
       <c r="D102" s="2">
         <v>13839</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F102" s="3">
+        <v>15883</v>
+      </c>
+      <c r="G102" s="3">
+        <v>14322</v>
+      </c>
+      <c r="H102" s="3">
+        <v>997</v>
+      </c>
+      <c r="I102" s="3">
+        <v>929</v>
+      </c>
+      <c r="J102" s="3">
+        <v>568</v>
+      </c>
+      <c r="K102" s="3">
+        <v>498</v>
+      </c>
+      <c r="L102" s="3">
+        <v>284657</v>
+      </c>
+      <c r="M102" s="3">
+        <v>277689</v>
+      </c>
+      <c r="N102" s="3">
+        <v>10666</v>
+      </c>
+      <c r="O102" s="3">
+        <v>9904</v>
+      </c>
+      <c r="P102" s="3">
+        <v>6318</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>6455</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -2180,8 +5928,44 @@
       <c r="D103" s="2">
         <v>12141</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F103" s="3">
+        <v>30447</v>
+      </c>
+      <c r="G103" s="3">
+        <v>28840</v>
+      </c>
+      <c r="H103" s="3">
+        <v>1489</v>
+      </c>
+      <c r="I103" s="3">
+        <v>1482</v>
+      </c>
+      <c r="J103" s="3">
+        <v>1046</v>
+      </c>
+      <c r="K103" s="3">
+        <v>862</v>
+      </c>
+      <c r="L103" s="3">
+        <v>357238</v>
+      </c>
+      <c r="M103" s="3">
+        <v>320240</v>
+      </c>
+      <c r="N103" s="3">
+        <v>8364</v>
+      </c>
+      <c r="O103" s="3">
+        <v>7862</v>
+      </c>
+      <c r="P103" s="3">
+        <v>5357</v>
+      </c>
+      <c r="Q103" s="3">
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -2194,8 +5978,44 @@
       <c r="D104" s="2">
         <v>28040</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F104" s="3">
+        <v>158720</v>
+      </c>
+      <c r="G104" s="3">
+        <v>137302</v>
+      </c>
+      <c r="H104" s="3">
+        <v>5223</v>
+      </c>
+      <c r="I104" s="3">
+        <v>4603</v>
+      </c>
+      <c r="J104" s="3">
+        <v>3202</v>
+      </c>
+      <c r="K104" s="3">
+        <v>2419</v>
+      </c>
+      <c r="L104" s="3">
+        <v>864928</v>
+      </c>
+      <c r="M104" s="3">
+        <v>753104</v>
+      </c>
+      <c r="N104" s="3">
+        <v>22714</v>
+      </c>
+      <c r="O104" s="3">
+        <v>19497</v>
+      </c>
+      <c r="P104" s="3">
+        <v>11978</v>
+      </c>
+      <c r="Q104" s="3">
+        <v>10441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -2208,8 +6028,44 @@
       <c r="D105" s="2">
         <v>147751</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F105" s="3">
+        <v>488451</v>
+      </c>
+      <c r="G105" s="3">
+        <v>422248</v>
+      </c>
+      <c r="H105" s="3">
+        <v>20815</v>
+      </c>
+      <c r="I105" s="3">
+        <v>18973</v>
+      </c>
+      <c r="J105" s="3">
+        <v>12803</v>
+      </c>
+      <c r="K105" s="3">
+        <v>10290</v>
+      </c>
+      <c r="L105" s="3">
+        <v>3648356</v>
+      </c>
+      <c r="M105" s="3">
+        <v>3157272</v>
+      </c>
+      <c r="N105" s="3">
+        <v>109269</v>
+      </c>
+      <c r="O105" s="3">
+        <v>96174</v>
+      </c>
+      <c r="P105" s="3">
+        <v>62771</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>56391</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -2222,8 +6078,44 @@
       <c r="D106" s="2">
         <v>638900</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F106" s="3">
+        <v>1668250</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H106" s="3">
+        <v>61190</v>
+      </c>
+      <c r="I106" s="3">
+        <v>55040</v>
+      </c>
+      <c r="J106" s="3">
+        <v>44228</v>
+      </c>
+      <c r="K106" s="3">
+        <v>34629</v>
+      </c>
+      <c r="L106" s="3">
+        <v>11772142</v>
+      </c>
+      <c r="M106" s="3">
+        <v>10755963</v>
+      </c>
+      <c r="N106" s="3">
+        <v>475548</v>
+      </c>
+      <c r="O106" s="3">
+        <v>440825</v>
+      </c>
+      <c r="P106" s="3">
+        <v>279959</v>
+      </c>
+      <c r="Q106" s="3">
+        <v>259566</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -2236,28 +6128,64 @@
       <c r="D107" s="2">
         <v>4047337</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F107" s="3">
+        <v>19194476</v>
+      </c>
+      <c r="G107" s="3">
+        <v>9381709</v>
+      </c>
+      <c r="H107" s="3">
+        <v>375708</v>
+      </c>
+      <c r="I107" s="3">
+        <v>351884</v>
+      </c>
+      <c r="J107" s="3">
+        <v>285291</v>
+      </c>
+      <c r="K107" s="3">
+        <v>287004</v>
+      </c>
+      <c r="L107" s="3">
+        <v>65769648</v>
+      </c>
+      <c r="M107" s="3">
+        <v>65733376</v>
+      </c>
+      <c r="N107" s="3">
+        <v>3066183</v>
+      </c>
+      <c r="O107" s="3">
+        <v>2918320</v>
+      </c>
+      <c r="P107" s="3">
+        <v>1808318</v>
+      </c>
+      <c r="Q107" s="3">
+        <v>1696206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1907.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1907.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5EAA2A-ABCE-40C5-93C6-5525864DCAC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0538C0-E00C-48BB-AD38-5C33D553369F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{26DDFB96-2A59-463B-8827-7F297B6E5252}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="141">
   <si>
     <t>губ</t>
   </si>
@@ -433,6 +433,27 @@
   </si>
   <si>
     <t>13)5386</t>
+  </si>
+  <si>
+    <t>чж-гор-о NYY</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>чр-гор-о YY</t>
+  </si>
+  <si>
+    <t>чс-гор-о YY</t>
+  </si>
+  <si>
+    <t>чж-уез-о NYY</t>
+  </si>
+  <si>
+    <t>чр-уез-о YY</t>
+  </si>
+  <si>
+    <t>чс-уез-о YY</t>
   </si>
 </sst>
 </file>
@@ -797,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC0A161-710E-49B7-BB61-44432D87D5A4}">
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:AC118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="L102" sqref="L102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,14 +829,26 @@
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="6" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,37 +868,73 @@
         <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -884,38 +953,48 @@
       <c r="G2" s="3">
         <v>17648</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3">
         <v>912</v>
       </c>
-      <c r="I2" s="3">
+      <c r="K2" s="3">
         <v>808</v>
       </c>
-      <c r="J2" s="3">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3">
         <v>718</v>
       </c>
-      <c r="K2" s="3">
+      <c r="O2" s="3">
         <v>512</v>
       </c>
-      <c r="L2" s="3">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3">
         <v>174115</v>
       </c>
-      <c r="M2" s="3">
+      <c r="S2" s="3">
         <v>193682</v>
       </c>
-      <c r="N2" s="3">
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3">
         <v>8422</v>
       </c>
-      <c r="O2" s="3">
+      <c r="W2" s="3">
         <v>7995</v>
       </c>
-      <c r="P2" s="3">
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3">
         <v>4531</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="AA2" s="3">
         <v>4033</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -934,38 +1013,48 @@
       <c r="G3" s="3">
         <v>79622</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
         <v>3647</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J3" s="3">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
         <v>4625</v>
       </c>
-      <c r="K3" s="3">
+      <c r="O3" s="3">
         <v>3405</v>
       </c>
-      <c r="L3" s="3">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3">
         <v>539102</v>
       </c>
-      <c r="M3" s="3">
+      <c r="S3" s="3">
         <v>506034</v>
       </c>
-      <c r="N3" s="3">
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3">
         <v>20306</v>
       </c>
-      <c r="O3" s="3">
+      <c r="W3" s="3">
         <v>19055</v>
       </c>
-      <c r="P3" s="3">
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3">
         <v>13875</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="AA3" s="3">
         <v>11447</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -984,38 +1073,48 @@
       <c r="G4" s="3">
         <v>104818</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
         <v>4311</v>
       </c>
-      <c r="I4" s="3">
+      <c r="K4" s="3">
         <v>3603</v>
       </c>
-      <c r="J4" s="3">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
         <v>2968</v>
       </c>
-      <c r="K4" s="3">
+      <c r="O4" s="3">
         <v>2631</v>
       </c>
-      <c r="L4" s="3">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3">
         <v>828628</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="3">
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3">
         <v>28016</v>
       </c>
-      <c r="O4" s="3">
+      <c r="W4" s="3">
         <v>26615</v>
       </c>
-      <c r="P4" s="3">
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3">
         <v>15453</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="AA4" s="3">
         <v>14239</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1034,38 +1133,48 @@
       <c r="G5" s="3">
         <v>143028</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
         <v>4451</v>
       </c>
-      <c r="I5" s="3">
+      <c r="K5" s="3">
         <v>3715</v>
       </c>
-      <c r="J5" s="3">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
         <v>2650</v>
       </c>
-      <c r="K5" s="3">
+      <c r="O5" s="3">
         <v>2253</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="M5" s="3">
+      <c r="S5" s="3">
         <v>704141</v>
       </c>
-      <c r="N5" s="3">
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3">
         <v>29975</v>
       </c>
-      <c r="O5" s="3">
+      <c r="W5" s="3">
         <v>28383</v>
       </c>
-      <c r="P5" s="3">
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3">
         <v>15451</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="AA5" s="3">
         <v>13803</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1084,38 +1193,48 @@
       <c r="G6" s="3">
         <v>158845</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
         <v>4825</v>
       </c>
-      <c r="I6" s="3">
+      <c r="K6" s="3">
         <v>3951</v>
       </c>
-      <c r="J6" s="3">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
         <v>2885</v>
       </c>
-      <c r="K6" s="3">
+      <c r="O6" s="3">
         <v>2373</v>
       </c>
-      <c r="L6" s="3">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3">
         <v>1630111</v>
       </c>
-      <c r="M6" s="3">
+      <c r="S6" s="3">
         <v>1610607</v>
       </c>
-      <c r="N6" s="3">
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3">
         <v>75926</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="P6" s="3">
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3">
         <v>39678</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="AA6" s="3">
         <v>36571</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1134,38 +1253,48 @@
       <c r="G7" s="3">
         <v>122078</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
         <v>3703</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="3">
         <v>2808</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
         <v>2003</v>
       </c>
-      <c r="K7" s="3">
+      <c r="O7" s="3">
         <v>1611</v>
       </c>
-      <c r="L7" s="3">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3">
         <v>736378</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N7" s="3">
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3">
         <v>31399</v>
       </c>
-      <c r="O7" s="3">
+      <c r="W7" s="3">
         <v>29197</v>
       </c>
-      <c r="P7" s="3">
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3">
         <v>17130</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="AA7" s="3">
         <v>16121</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1184,38 +1313,48 @@
       <c r="G8" s="3">
         <v>359290</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
         <v>11433</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>10533</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
         <v>8884</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>7029</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3">
         <v>1798651</v>
       </c>
-      <c r="M8" s="3">
+      <c r="S8" s="3">
         <v>1832092</v>
       </c>
-      <c r="N8" s="3">
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3">
         <v>83519</v>
       </c>
-      <c r="O8" s="3">
+      <c r="W8" s="3">
         <v>79445</v>
       </c>
-      <c r="P8" s="3">
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3">
         <v>47261</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="AA8" s="3">
         <v>43768</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1234,38 +1373,48 @@
       <c r="G9" s="3">
         <v>71208</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
         <v>2201</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1913</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
         <v>1564</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>1317</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3">
         <v>749193</v>
       </c>
-      <c r="M9" s="3">
+      <c r="S9" s="3">
         <v>794957</v>
       </c>
-      <c r="N9" s="3">
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3">
         <v>24105</v>
       </c>
-      <c r="O9" s="3">
+      <c r="W9" s="3">
         <v>22700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3">
         <v>15833</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="AA9" s="3">
         <v>15075</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1284,38 +1433,48 @@
       <c r="G10" s="3">
         <v>119531</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
         <v>4963</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4163</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
         <v>2833</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>2311</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3">
         <v>1211938</v>
       </c>
-      <c r="M10" s="3">
+      <c r="S10" s="3">
         <v>1213286</v>
       </c>
-      <c r="N10" s="3">
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3">
         <v>52462</v>
       </c>
-      <c r="O10" s="3">
+      <c r="W10" s="3">
         <v>49032</v>
       </c>
-      <c r="P10" s="3">
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3">
         <v>26084</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="AA10" s="3">
         <v>23656</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1334,38 +1493,48 @@
       <c r="G11" s="3">
         <v>109967</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
         <v>2992</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J11" s="3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
         <v>1670</v>
       </c>
-      <c r="K11" s="3">
+      <c r="O11" s="3">
         <v>1426</v>
       </c>
-      <c r="L11" s="3">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3">
         <v>953685</v>
       </c>
-      <c r="M11" s="3">
+      <c r="S11" s="3">
         <v>955501</v>
       </c>
-      <c r="N11" s="3">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3">
         <v>44095</v>
       </c>
-      <c r="O11" s="3">
+      <c r="W11" s="3">
         <v>40388</v>
       </c>
-      <c r="P11" s="3">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3">
         <v>20318</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="AA11" s="3">
         <v>18808</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1384,38 +1553,48 @@
       <c r="G12" s="3">
         <v>102948</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
         <v>6109</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>5925</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3">
         <v>5325</v>
       </c>
-      <c r="K12" s="3">
+      <c r="O12" s="3">
         <v>4498</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="M12" s="3">
+      <c r="S12" s="3">
         <v>873122</v>
       </c>
-      <c r="N12" s="3">
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3">
         <v>55274</v>
       </c>
-      <c r="O12" s="3">
+      <c r="W12" s="3">
         <v>53096</v>
       </c>
-      <c r="P12" s="3">
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3">
         <v>34380</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="AA12" s="3">
         <v>32352</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1434,38 +1613,48 @@
       <c r="G13" s="3">
         <v>121571</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
         <v>3835</v>
       </c>
-      <c r="I13" s="3">
+      <c r="K13" s="3">
         <v>3286</v>
       </c>
-      <c r="J13" s="3">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3">
         <v>2479</v>
       </c>
-      <c r="K13" s="3">
+      <c r="O13" s="3">
         <v>1956</v>
       </c>
-      <c r="L13" s="3">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3">
         <v>1572936</v>
       </c>
-      <c r="M13" s="3">
+      <c r="S13" s="3">
         <v>1595490</v>
       </c>
-      <c r="N13" s="3">
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3">
         <v>76428</v>
       </c>
-      <c r="O13" s="3">
+      <c r="W13" s="3">
         <v>71969</v>
       </c>
-      <c r="P13" s="3">
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3">
         <v>40624</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="AA13" s="3">
         <v>36820</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1484,38 +1673,48 @@
       <c r="G14" s="3">
         <v>1510546</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
         <v>53389</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>46683</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
         <v>38603</v>
       </c>
-      <c r="K14" s="3">
+      <c r="O14" s="3">
         <v>31374</v>
       </c>
-      <c r="L14" s="3">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3">
         <v>11771109</v>
       </c>
-      <c r="M14" s="3">
+      <c r="S14" s="3">
         <v>11822201</v>
       </c>
-      <c r="N14" s="3">
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3">
         <v>529927</v>
       </c>
-      <c r="O14" s="3">
+      <c r="W14" s="3">
         <v>498800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3">
         <v>290618</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="AA14" s="3">
         <v>266607</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1534,38 +1733,48 @@
       <c r="G15" s="3">
         <v>64466</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
         <v>2973</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2683</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3">
         <v>2456</v>
       </c>
-      <c r="K15" s="3">
+      <c r="O15" s="3">
         <v>1234</v>
       </c>
-      <c r="L15" s="3">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3">
         <v>795308</v>
       </c>
-      <c r="M15" s="3">
+      <c r="S15" s="3">
         <v>757469</v>
       </c>
-      <c r="N15" s="3">
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3">
         <v>26437</v>
       </c>
-      <c r="O15" s="3">
+      <c r="W15" s="3">
         <v>24102</v>
       </c>
-      <c r="P15" s="3">
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3">
         <v>15401</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="AA15" s="3">
         <v>13270</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1584,38 +1793,48 @@
       <c r="G16" s="3">
         <v>394418</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
         <v>11215</v>
       </c>
-      <c r="I16" s="3">
+      <c r="K16" s="3">
         <v>9994</v>
       </c>
-      <c r="J16" s="3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3">
         <v>8262</v>
       </c>
-      <c r="K16" s="3">
+      <c r="O16" s="3">
         <v>7435</v>
       </c>
-      <c r="L16" s="3">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3">
         <v>0</v>
       </c>
-      <c r="M16" s="3">
+      <c r="S16" s="3">
         <v>0</v>
       </c>
-      <c r="N16" s="3">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3">
         <v>0</v>
       </c>
-      <c r="O16" s="3">
+      <c r="W16" s="3">
         <v>0</v>
       </c>
-      <c r="P16" s="3">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3">
         <v>0</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="AA16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1634,38 +1853,48 @@
       <c r="G17" s="3">
         <v>52565</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
         <v>1463</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1396</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3">
         <v>857</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>805</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3">
         <v>525777</v>
       </c>
-      <c r="M17" s="3">
+      <c r="S17" s="3">
         <v>542882</v>
       </c>
-      <c r="N17" s="3">
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3">
         <v>21380</v>
       </c>
-      <c r="O17" s="3">
+      <c r="W17" s="3">
         <v>20795</v>
       </c>
-      <c r="P17" s="3">
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3">
         <v>12504</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="AA17" s="3">
         <v>12750</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1684,38 +1913,48 @@
       <c r="G18" s="3">
         <v>26937</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
         <v>785</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>763</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3">
         <v>579</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>451</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3">
         <v>508939</v>
       </c>
-      <c r="M18" s="3">
+      <c r="S18" s="3">
         <v>508848</v>
       </c>
-      <c r="N18" s="3">
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3">
         <v>16834</v>
       </c>
-      <c r="O18" s="3">
+      <c r="W18" s="3">
         <v>15868</v>
       </c>
-      <c r="P18" s="3">
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3">
         <v>8316</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="AA18" s="3">
         <v>8038</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1734,38 +1973,48 @@
       <c r="G19" s="3">
         <v>42588</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
         <v>926</v>
       </c>
-      <c r="I19" s="3">
+      <c r="K19" s="3">
         <v>704</v>
       </c>
-      <c r="J19" s="3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3">
         <v>591</v>
       </c>
-      <c r="K19" s="3">
+      <c r="O19" s="3">
         <v>553</v>
       </c>
-      <c r="L19" s="3">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3">
         <v>322424</v>
       </c>
-      <c r="M19" s="3">
+      <c r="S19" s="3">
         <v>313837</v>
       </c>
-      <c r="N19" s="3">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3">
         <v>9647</v>
       </c>
-      <c r="O19" s="3">
+      <c r="W19" s="3">
         <v>8849</v>
       </c>
-      <c r="P19" s="3">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3">
         <v>5238</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="AA19" s="3">
         <v>4958</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1784,38 +2033,48 @@
       <c r="G20" s="3">
         <v>83546</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3">
         <v>2086</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1672</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3">
         <v>1558</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>1375</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3">
         <v>656009</v>
       </c>
-      <c r="M20" s="3">
+      <c r="S20" s="3">
         <v>658104</v>
       </c>
-      <c r="N20" s="3">
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3">
         <v>24298</v>
       </c>
-      <c r="O20" s="3">
+      <c r="W20" s="3">
         <v>23768</v>
       </c>
-      <c r="P20" s="3">
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3">
         <v>13684</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="AA20" s="3">
         <v>13863</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1834,38 +2093,48 @@
       <c r="G21" s="3">
         <v>275193</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3">
         <v>14564</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>14732</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3">
         <v>6895</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>6073</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3">
         <v>626559</v>
       </c>
-      <c r="M21" s="3">
+      <c r="S21" s="3">
         <v>663430</v>
       </c>
-      <c r="N21" s="3">
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3">
         <v>29002</v>
       </c>
-      <c r="O21" s="3">
+      <c r="W21" s="3">
         <v>27601</v>
       </c>
-      <c r="P21" s="3">
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3">
         <v>15788</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="AA21" s="3">
         <v>16103</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1884,38 +2153,48 @@
       <c r="G22" s="3">
         <v>45622</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3">
         <v>1156</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1016</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3">
         <v>566</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>608</v>
       </c>
-      <c r="L22" s="3">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3">
         <v>328829</v>
       </c>
-      <c r="M22" s="3">
+      <c r="S22" s="3">
         <v>332938</v>
       </c>
-      <c r="N22" s="3">
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3">
         <v>10689</v>
       </c>
-      <c r="O22" s="3">
+      <c r="W22" s="3">
         <v>10508</v>
       </c>
-      <c r="P22" s="3">
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3">
         <v>6828</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="AA22" s="3">
         <v>6685</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1934,38 +2213,48 @@
       <c r="G23" s="3">
         <v>41771</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
         <v>2104</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2136</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3">
         <v>1147</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>1221</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3">
         <v>509151</v>
       </c>
-      <c r="M23" s="3">
+      <c r="S23" s="3">
         <v>502846</v>
       </c>
-      <c r="N23" s="3">
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3">
         <v>18397</v>
       </c>
-      <c r="O23" s="3">
+      <c r="W23" s="3">
         <v>17898</v>
       </c>
-      <c r="P23" s="3">
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3">
         <v>9282</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="AA23" s="3">
         <v>9907</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1984,38 +2273,48 @@
       <c r="G24" s="3">
         <v>35876</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
         <v>767</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>792</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3">
         <v>651</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>691</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3">
         <v>265476</v>
       </c>
-      <c r="M24" s="3">
+      <c r="S24" s="3">
         <v>288597</v>
       </c>
-      <c r="N24" s="3">
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3">
         <v>8519</v>
       </c>
-      <c r="O24" s="3">
+      <c r="W24" s="3">
         <v>8403</v>
       </c>
-      <c r="P24" s="3">
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3">
         <v>5833</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="AA24" s="3">
         <v>6128</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2034,38 +2333,48 @@
       <c r="G25" s="3">
         <v>47590</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
         <v>1404</v>
       </c>
-      <c r="I25" s="3">
+      <c r="K25" s="3">
         <v>1314</v>
       </c>
-      <c r="J25" s="3">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3">
         <v>974</v>
       </c>
-      <c r="K25" s="3">
+      <c r="O25" s="3">
         <v>822</v>
       </c>
-      <c r="L25" s="3">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3">
         <v>444218</v>
       </c>
-      <c r="M25" s="3">
+      <c r="S25" s="3">
         <v>443649</v>
       </c>
-      <c r="N25" s="3">
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3">
         <v>17371</v>
       </c>
-      <c r="O25" s="3">
+      <c r="W25" s="3">
         <v>17474</v>
       </c>
-      <c r="P25" s="3">
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3">
         <v>9607</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="AA25" s="3">
         <v>9742</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2084,38 +2393,48 @@
       <c r="G26" s="3">
         <v>1110572</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
         <v>39443</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>37202</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3">
         <v>24536</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>21268</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3">
         <v>4982600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="S26" s="3">
         <v>5012600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3">
         <v>182574</v>
       </c>
-      <c r="O26" s="3">
+      <c r="W26" s="3">
         <v>175266</v>
       </c>
-      <c r="P26" s="3">
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3">
         <v>102481</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="AA26" s="3">
         <v>101444</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2134,38 +2453,48 @@
       <c r="G27" s="3">
         <v>84400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
         <v>3023</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2892</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3">
         <v>2098</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>1659</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3">
         <v>259400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="S27" s="3">
         <v>283100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3">
         <v>5590</v>
       </c>
-      <c r="O27" s="3">
+      <c r="W27" s="3">
         <v>5320</v>
       </c>
-      <c r="P27" s="3">
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3">
         <v>4169</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="AA27" s="3">
         <v>3589</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2184,38 +2513,48 @@
       <c r="G28" s="3">
         <v>191354</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3">
         <v>6667</v>
       </c>
-      <c r="I28" s="3">
+      <c r="K28" s="3">
         <v>6240</v>
       </c>
-      <c r="J28" s="3">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3">
         <v>5696</v>
       </c>
-      <c r="K28" s="3">
+      <c r="O28" s="3">
         <v>4716</v>
       </c>
-      <c r="L28" s="3">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3">
         <v>501521</v>
       </c>
-      <c r="M28" s="3">
+      <c r="S28" s="3">
         <v>537672</v>
       </c>
-      <c r="N28" s="3">
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3">
         <v>11670</v>
       </c>
-      <c r="O28" s="3">
+      <c r="W28" s="3">
         <v>10796</v>
       </c>
-      <c r="P28" s="3">
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3">
         <v>8483</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="AA28" s="3">
         <v>8172</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2234,38 +2573,48 @@
       <c r="G29" s="3">
         <v>40915</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3">
         <v>1347</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>1240</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3">
         <v>1122</v>
       </c>
-      <c r="K29" s="3">
+      <c r="O29" s="3">
         <v>933</v>
       </c>
-      <c r="L29" s="3">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3">
         <v>182524</v>
       </c>
-      <c r="M29" s="3">
+      <c r="S29" s="3">
         <v>190984</v>
       </c>
-      <c r="N29" s="3">
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3">
         <v>4911</v>
       </c>
-      <c r="O29" s="3">
+      <c r="W29" s="3">
         <v>4757</v>
       </c>
-      <c r="P29" s="3">
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3">
         <v>3351</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="AA29" s="3">
         <v>3324</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2284,38 +2633,48 @@
       <c r="G30" s="3">
         <v>316669</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3">
         <v>11037</v>
       </c>
-      <c r="I30" s="3">
+      <c r="K30" s="3">
         <v>10372</v>
       </c>
-      <c r="J30" s="3">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3">
         <v>8910</v>
       </c>
-      <c r="K30" s="3">
+      <c r="O30" s="3">
         <v>7308</v>
       </c>
-      <c r="L30" s="3">
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3">
         <v>943445</v>
       </c>
-      <c r="M30" s="3">
+      <c r="S30" s="3">
         <v>1011756</v>
       </c>
-      <c r="N30" s="3">
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3">
         <v>22171</v>
       </c>
-      <c r="O30" s="3">
+      <c r="W30" s="3">
         <v>20873</v>
       </c>
-      <c r="P30" s="3">
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3">
         <v>16003</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="AA30" s="3">
         <v>15035</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2334,38 +2693,48 @@
       <c r="G31" s="3">
         <v>131256</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3">
         <v>5250</v>
       </c>
-      <c r="I31" s="3">
+      <c r="K31" s="3">
         <v>4588</v>
       </c>
-      <c r="J31" s="3">
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3">
         <v>3772</v>
       </c>
-      <c r="K31" s="3">
+      <c r="O31" s="3">
         <v>3194</v>
       </c>
-      <c r="L31" s="3">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3">
         <v>1045337</v>
       </c>
-      <c r="M31" s="3">
+      <c r="S31" s="3">
         <v>1001905</v>
       </c>
-      <c r="N31" s="3">
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3">
         <v>50151</v>
       </c>
-      <c r="O31" s="3">
+      <c r="W31" s="3">
         <v>47206</v>
       </c>
-      <c r="P31" s="3">
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3">
         <v>27926</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="AA31" s="3">
         <v>25072</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2384,38 +2753,48 @@
       <c r="G32" s="3">
         <v>116631</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3">
         <v>5174</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>4894</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3">
         <v>4238</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>3707</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3">
         <v>847103</v>
       </c>
-      <c r="M32" s="3">
+      <c r="S32" s="3">
         <v>881445</v>
       </c>
-      <c r="N32" s="3">
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3">
         <v>39390</v>
       </c>
-      <c r="O32" s="3">
+      <c r="W32" s="3">
         <v>37138</v>
       </c>
-      <c r="P32" s="3">
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3">
         <v>24788</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="AA32" s="3">
         <v>23502</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2434,38 +2813,48 @@
       <c r="G33" s="3">
         <v>32819</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3">
         <v>1454</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1360</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3">
         <v>1056</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>901</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3">
         <v>698343</v>
       </c>
-      <c r="M33" s="3">
+      <c r="S33" s="3">
         <v>765705</v>
       </c>
-      <c r="N33" s="3">
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3">
         <v>36405</v>
       </c>
-      <c r="O33" s="3">
+      <c r="W33" s="3">
         <v>34326</v>
       </c>
-      <c r="P33" s="3">
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3">
         <v>21730</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="AA33" s="3">
         <v>19924</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2484,38 +2873,48 @@
       <c r="G34" s="3">
         <v>66164</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3">
         <v>2641</v>
       </c>
-      <c r="I34" s="3">
+      <c r="K34" s="3">
         <v>2434</v>
       </c>
-      <c r="J34" s="3">
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3">
         <v>2240</v>
       </c>
-      <c r="K34" s="3">
+      <c r="O34" s="3">
         <v>1902</v>
       </c>
-      <c r="L34" s="3">
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3">
         <v>1599366</v>
       </c>
-      <c r="M34" s="3">
+      <c r="S34" s="3">
         <v>1575514</v>
       </c>
-      <c r="N34" s="3">
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3">
         <v>88158</v>
       </c>
-      <c r="O34" s="3">
+      <c r="W34" s="3">
         <v>84722</v>
       </c>
-      <c r="P34" s="3">
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3">
         <v>49579</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="AA34" s="3">
         <v>47719</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2534,38 +2933,48 @@
       <c r="G35" s="3">
         <v>54818</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3">
         <v>2116</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2084</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3">
         <v>2042</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>1698</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3">
         <v>1685715</v>
       </c>
-      <c r="M35" s="3">
+      <c r="S35" s="3">
         <v>1762267</v>
       </c>
-      <c r="N35" s="3">
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3">
         <v>94445</v>
       </c>
-      <c r="O35" s="3">
+      <c r="W35" s="3">
         <v>91115</v>
       </c>
-      <c r="P35" s="3">
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3">
         <v>62092</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="AA35" s="3">
         <v>60198</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2584,38 +2993,48 @@
       <c r="G36" s="3">
         <v>189145</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3">
         <v>8756</v>
       </c>
-      <c r="I36" s="3">
+      <c r="K36" s="3">
         <v>8271</v>
       </c>
-      <c r="J36" s="3">
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3">
         <v>5940</v>
       </c>
-      <c r="K36" s="3">
+      <c r="O36" s="3">
         <v>4616</v>
       </c>
-      <c r="L36" s="3">
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3">
         <v>1330503</v>
       </c>
-      <c r="M36" s="3">
+      <c r="S36" s="3">
         <v>1180431</v>
       </c>
-      <c r="N36" s="3">
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3">
         <v>72223</v>
       </c>
-      <c r="O36" s="3">
+      <c r="W36" s="3">
         <v>68156</v>
       </c>
-      <c r="P36" s="3">
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3">
         <v>36193</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="AA36" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2634,38 +3053,48 @@
       <c r="G37" s="3">
         <v>121255</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3">
         <v>4094</v>
       </c>
-      <c r="I37" s="3">
+      <c r="K37" s="3">
         <v>4300</v>
       </c>
-      <c r="J37" s="3">
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3">
         <v>3263</v>
       </c>
-      <c r="K37" s="3">
+      <c r="O37" s="3">
         <v>3361</v>
       </c>
-      <c r="L37" s="3">
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3">
         <v>1151830</v>
       </c>
-      <c r="M37" s="3">
+      <c r="S37" s="3">
         <v>1156649</v>
       </c>
-      <c r="N37" s="3">
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3">
         <v>53074</v>
       </c>
-      <c r="O37" s="3">
+      <c r="W37" s="3">
         <v>51201</v>
       </c>
-      <c r="P37" s="3">
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3">
         <v>35022</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="AA37" s="3">
         <v>36507</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2684,38 +3113,48 @@
       <c r="G38" s="3">
         <v>46181</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3">
         <v>1731</v>
       </c>
-      <c r="I38" s="3">
+      <c r="K38" s="3">
         <v>1578</v>
       </c>
-      <c r="J38" s="3">
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3">
         <v>1507</v>
       </c>
-      <c r="K38" s="3">
+      <c r="O38" s="3">
         <v>1215</v>
       </c>
-      <c r="L38" s="3">
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3">
         <v>600763</v>
       </c>
-      <c r="M38" s="3">
+      <c r="S38" s="3">
         <v>690323</v>
       </c>
-      <c r="N38" s="3">
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3">
         <v>32379</v>
       </c>
-      <c r="O38" s="3">
+      <c r="W38" s="3">
         <v>32720</v>
       </c>
-      <c r="P38" s="3">
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3">
         <v>21199</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="AA38" s="3">
         <v>20626</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2734,38 +3173,48 @@
       <c r="G39" s="3">
         <v>47513</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3">
         <v>2027</v>
       </c>
-      <c r="I39" s="3">
+      <c r="K39" s="3">
         <v>1994</v>
       </c>
-      <c r="J39" s="3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3">
         <v>1587</v>
       </c>
-      <c r="K39" s="3">
+      <c r="O39" s="3">
         <v>1372</v>
       </c>
-      <c r="L39" s="3">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3">
         <v>719150</v>
       </c>
-      <c r="M39" s="3">
+      <c r="S39" s="3">
         <v>822581</v>
       </c>
-      <c r="N39" s="3">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3">
         <v>38063</v>
       </c>
-      <c r="O39" s="3">
+      <c r="W39" s="3">
         <v>36565</v>
       </c>
-      <c r="P39" s="3">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3">
         <v>21665</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="AA39" s="3">
         <v>20470</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2784,38 +3233,48 @@
       <c r="G40" s="3">
         <v>120958</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3">
         <v>3841</v>
       </c>
-      <c r="I40" s="3">
+      <c r="K40" s="3">
         <v>3997</v>
       </c>
-      <c r="J40" s="3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3">
         <v>2935</v>
       </c>
-      <c r="K40" s="3">
+      <c r="O40" s="3">
         <v>3286</v>
       </c>
-      <c r="L40" s="3">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3">
         <v>1311470</v>
       </c>
-      <c r="M40" s="3">
+      <c r="S40" s="3">
         <v>1322798</v>
       </c>
-      <c r="N40" s="3">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3">
         <v>61935</v>
       </c>
-      <c r="O40" s="3">
+      <c r="W40" s="3">
         <v>66076</v>
       </c>
-      <c r="P40" s="3">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3">
         <v>37429</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="AA40" s="3">
         <v>38370</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2834,38 +3293,48 @@
       <c r="G41" s="3">
         <v>56178</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3">
         <v>2945</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2705</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3">
         <v>2263</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>1842</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3">
         <v>759637</v>
       </c>
-      <c r="M41" s="3">
+      <c r="S41" s="3">
         <v>807775</v>
       </c>
-      <c r="N41" s="3">
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3">
         <v>38204</v>
       </c>
-      <c r="O41" s="3">
+      <c r="W41" s="3">
         <v>36063</v>
       </c>
-      <c r="P41" s="3">
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3">
         <v>25918</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="AA41" s="3">
         <v>22888</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2884,38 +3353,48 @@
       <c r="G42" s="3">
         <v>605210</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3">
         <v>22888</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>21641</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3">
         <v>20928</v>
       </c>
-      <c r="K42" s="3">
+      <c r="O42" s="3">
         <v>16767</v>
       </c>
-      <c r="L42" s="3">
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3">
+      <c r="S42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3">
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3">
+      <c r="W42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3">
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="AA42" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2934,38 +3413,48 @@
       <c r="G43" s="3">
         <v>67128</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3">
         <v>3451</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3103</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3">
         <v>2703</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>2188</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3">
         <v>850361</v>
       </c>
-      <c r="M43" s="3">
+      <c r="S43" s="3">
         <v>917762</v>
       </c>
-      <c r="N43" s="3">
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3">
         <v>45426</v>
       </c>
-      <c r="O43" s="3">
+      <c r="W43" s="3">
         <v>43245</v>
       </c>
-      <c r="P43" s="3">
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3">
         <v>30973</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="AA43" s="3">
         <v>28636</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2984,38 +3473,48 @@
       <c r="G44" s="3">
         <v>43977</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3">
         <v>1653</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1569</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3">
         <v>1543</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>1273</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3">
         <v>694450</v>
       </c>
-      <c r="M44" s="3">
+      <c r="S44" s="3">
         <v>760020</v>
       </c>
-      <c r="N44" s="3">
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3">
         <v>32219</v>
       </c>
-      <c r="O44" s="3">
+      <c r="W44" s="3">
         <v>30827</v>
       </c>
-      <c r="P44" s="3">
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3">
         <v>19868</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="AA44" s="3">
         <v>18049</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -3034,38 +3533,48 @@
       <c r="G45" s="3">
         <v>15382</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3">
         <v>661</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>586</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3">
         <v>453</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>419</v>
       </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3">
         <v>189923</v>
       </c>
-      <c r="M45" s="3">
+      <c r="S45" s="3">
         <v>199156</v>
       </c>
-      <c r="N45" s="3">
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3">
         <v>9364</v>
       </c>
-      <c r="O45" s="3">
+      <c r="W45" s="3">
         <v>9073</v>
       </c>
-      <c r="P45" s="3">
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3">
         <v>6485</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="AA45" s="3">
         <v>6023</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -3084,38 +3593,48 @@
       <c r="G46" s="3">
         <v>131091</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3">
         <v>6156</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5703</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3">
         <v>3873</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>3573</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3">
         <v>1096792</v>
       </c>
-      <c r="M46" s="3">
+      <c r="S46" s="3">
         <v>1089542</v>
       </c>
-      <c r="N46" s="3">
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3">
         <v>56081</v>
       </c>
-      <c r="O46" s="3">
+      <c r="W46" s="3">
         <v>53005</v>
       </c>
-      <c r="P46" s="3">
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3">
         <v>35267</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="AA46" s="3">
         <v>33781</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3134,38 +3653,48 @@
       <c r="G47" s="3">
         <v>72884</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3">
         <v>3962</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3699</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3">
         <v>2945</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>2614</v>
       </c>
-      <c r="L47" s="3">
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3">
         <v>822277</v>
       </c>
-      <c r="M47" s="3">
+      <c r="S47" s="3">
         <v>849390</v>
       </c>
-      <c r="N47" s="3">
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3">
         <v>45650</v>
       </c>
-      <c r="O47" s="3">
+      <c r="W47" s="3">
         <v>44367</v>
       </c>
-      <c r="P47" s="3">
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3">
         <v>27011</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="AA47" s="3">
         <v>26298</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -3184,38 +3713,48 @@
       <c r="G48" s="3">
         <v>88530</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3">
         <v>4266</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4284</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>3531</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3">
         <v>1605129</v>
       </c>
-      <c r="M48" s="3">
+      <c r="S48" s="3">
         <v>1748050</v>
       </c>
-      <c r="N48" s="3">
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3">
         <v>101573</v>
       </c>
-      <c r="O48" s="3">
+      <c r="W48" s="3">
         <v>97172</v>
       </c>
-      <c r="P48" s="3">
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3">
         <v>70331</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="AA48" s="3">
         <v>65690</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -3234,38 +3773,48 @@
       <c r="G49" s="3">
         <v>160515</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3">
         <v>6794</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>6383</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3">
         <v>4942</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>3927</v>
       </c>
-      <c r="L49" s="3">
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3">
         <v>1528693</v>
       </c>
-      <c r="M49" s="3">
+      <c r="S49" s="3">
         <v>1528088</v>
       </c>
-      <c r="N49" s="3">
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3">
         <v>64028</v>
       </c>
-      <c r="O49" s="3">
+      <c r="W49" s="3">
         <v>60181</v>
       </c>
-      <c r="P49" s="3">
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3">
         <v>32951</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="AA49" s="3">
         <v>31449</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -3284,38 +3833,48 @@
       <c r="G50" s="3">
         <v>47640</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3">
         <v>1832</v>
       </c>
-      <c r="I50" s="3">
+      <c r="K50" s="3">
         <v>1827</v>
       </c>
-      <c r="J50" s="3">
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3">
         <v>1510</v>
       </c>
-      <c r="K50" s="3">
+      <c r="O50" s="3">
         <v>1369</v>
       </c>
-      <c r="L50" s="3">
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3">
         <v>599774</v>
       </c>
-      <c r="M50" s="3">
+      <c r="S50" s="3">
         <v>635839</v>
       </c>
-      <c r="N50" s="3">
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3">
         <v>27461</v>
       </c>
-      <c r="O50" s="3">
+      <c r="W50" s="3">
         <v>45766</v>
       </c>
-      <c r="P50" s="3">
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3">
         <v>15572</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="AA50" s="3">
         <v>14074</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -3334,38 +3893,48 @@
       <c r="G51" s="3">
         <v>65432</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3">
         <v>3381</v>
       </c>
-      <c r="I51" s="3">
+      <c r="K51" s="3">
         <v>3336</v>
       </c>
-      <c r="J51" s="3">
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3">
         <v>2785</v>
       </c>
-      <c r="K51" s="3">
+      <c r="O51" s="3">
         <v>2552</v>
       </c>
-      <c r="L51" s="3">
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3">
         <v>1125760</v>
       </c>
-      <c r="M51" s="3">
+      <c r="S51" s="3">
         <v>1140548</v>
       </c>
-      <c r="N51" s="3">
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3">
         <v>53348</v>
       </c>
-      <c r="O51" s="3">
+      <c r="W51" s="3">
         <v>50946</v>
       </c>
-      <c r="P51" s="3">
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3">
         <v>31895</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="AA51" s="3">
         <v>29949</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -3384,38 +3953,48 @@
       <c r="G52" s="3">
         <v>87824</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3">
         <v>5878</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5755</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>4823</v>
       </c>
-      <c r="L52" s="3">
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3">
         <v>1602621</v>
       </c>
-      <c r="M52" s="3">
+      <c r="S52" s="3">
         <v>1640564</v>
       </c>
-      <c r="N52" s="3">
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3">
         <v>85884</v>
       </c>
-      <c r="O52" s="3">
+      <c r="W52" s="3">
         <v>80899</v>
       </c>
-      <c r="P52" s="3">
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3">
         <v>57666</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="AA52" s="3">
         <v>55908</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -3434,38 +4013,48 @@
       <c r="G53" s="3">
         <v>157697</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3">
         <v>8127</v>
       </c>
-      <c r="I53" s="3">
+      <c r="K53" s="3">
         <v>7607</v>
       </c>
-      <c r="J53" s="3">
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3">
         <v>6820</v>
       </c>
-      <c r="K53" s="3">
+      <c r="O53" s="3">
         <v>5433</v>
       </c>
-      <c r="L53" s="3">
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3">
         <v>404678</v>
       </c>
-      <c r="M53" s="3">
+      <c r="S53" s="3">
         <v>390731</v>
       </c>
-      <c r="N53" s="3">
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3">
         <v>14453</v>
       </c>
-      <c r="O53" s="3">
+      <c r="W53" s="3">
         <v>13728</v>
       </c>
-      <c r="P53" s="3">
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3">
         <v>10823</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="AA53" s="3">
         <v>10019</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -3484,38 +4073,48 @@
       <c r="G54" s="3">
         <v>677700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3">
         <v>23253</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>22633</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3">
         <v>20549</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>16664</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="3">
+      <c r="S54" s="3">
         <v>0</v>
       </c>
-      <c r="N54" s="3">
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3">
         <v>0</v>
       </c>
-      <c r="O54" s="3">
+      <c r="W54" s="3">
         <v>0</v>
       </c>
-      <c r="P54" s="3">
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3">
         <v>0</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="AA54" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -3534,38 +4133,48 @@
       <c r="G55" s="3">
         <v>247978</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3">
         <v>11009</v>
       </c>
-      <c r="I55" s="3">
+      <c r="K55" s="3">
         <v>10480</v>
       </c>
-      <c r="J55" s="3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3">
         <v>7906</v>
       </c>
-      <c r="K55" s="3">
+      <c r="O55" s="3">
         <v>6643</v>
       </c>
-      <c r="L55" s="3">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3">
         <v>1240933</v>
       </c>
-      <c r="M55" s="3">
+      <c r="S55" s="3">
         <v>1262857</v>
       </c>
-      <c r="N55" s="3">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3">
         <v>68963</v>
       </c>
-      <c r="O55" s="3">
+      <c r="W55" s="3">
         <v>66574</v>
       </c>
-      <c r="P55" s="3">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3">
         <v>42815</v>
       </c>
-      <c r="Q55" s="3">
+      <c r="AA55" s="3">
         <v>40374</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -3584,38 +4193,48 @@
       <c r="G56" s="3">
         <v>68268</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3">
         <v>3671</v>
       </c>
-      <c r="I56" s="3">
+      <c r="K56" s="3">
         <v>3518</v>
       </c>
-      <c r="J56" s="3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3">
         <v>2955</v>
       </c>
-      <c r="K56" s="3">
+      <c r="O56" s="3">
         <v>2514</v>
       </c>
-      <c r="L56" s="3">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3">
         <v>828357</v>
       </c>
-      <c r="M56" s="3">
+      <c r="S56" s="3">
         <v>843640</v>
       </c>
-      <c r="N56" s="3">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3">
         <v>46915</v>
       </c>
-      <c r="O56" s="3">
+      <c r="W56" s="3">
         <v>44724</v>
       </c>
-      <c r="P56" s="3">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3">
         <v>26913</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="AA56" s="3">
         <v>25540</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -3634,38 +4253,48 @@
       <c r="G57" s="3">
         <v>74004</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3">
         <v>2285</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2175</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3">
         <v>1938</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>1636</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3">
         <v>852484</v>
       </c>
-      <c r="M57" s="3">
+      <c r="S57" s="3">
         <v>845669</v>
       </c>
-      <c r="N57" s="3">
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3">
         <v>46008</v>
       </c>
-      <c r="O57" s="3">
+      <c r="W57" s="3">
         <v>43500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3">
         <v>28262</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="AA57" s="3">
         <v>25763</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -3684,38 +4313,48 @@
       <c r="G58" s="3">
         <v>118621</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3">
         <v>4753</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>6369</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3">
         <v>3342</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>3799</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3">
         <v>747052</v>
       </c>
-      <c r="M58" s="3">
+      <c r="S58" s="3">
         <v>712222</v>
       </c>
-      <c r="N58" s="3">
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3">
         <v>37046</v>
       </c>
-      <c r="O58" s="3">
+      <c r="W58" s="3">
         <v>33692</v>
       </c>
-      <c r="P58" s="3">
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3">
         <v>19464</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="AA58" s="3">
         <v>17318</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -3734,38 +4373,48 @@
       <c r="G59" s="3">
         <v>20980</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3">
         <v>1132</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>979</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3">
         <v>682</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>449</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3">
+      <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3">
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3">
+      <c r="W59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3">
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="AA59" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -3784,38 +4433,48 @@
       <c r="G60" s="3">
         <v>113280</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3">
         <v>5756</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5637</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3">
         <v>4322</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>3856</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3">
         <v>1598440</v>
       </c>
-      <c r="M60" s="3">
+      <c r="S60" s="3">
         <v>1617105</v>
       </c>
-      <c r="N60" s="3">
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3">
         <v>84044</v>
       </c>
-      <c r="O60" s="3">
+      <c r="W60" s="3">
         <v>81539</v>
       </c>
-      <c r="P60" s="3">
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3">
         <v>47176</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="AA60" s="3">
         <v>44864</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -3834,38 +4493,48 @@
       <c r="G61" s="3">
         <v>84174</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3">
         <v>2141</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2048</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3">
         <v>1834</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>1821</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3">
         <v>926810</v>
       </c>
-      <c r="M61" s="3">
+      <c r="S61" s="3">
         <v>1116668</v>
       </c>
-      <c r="N61" s="3">
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3">
         <v>49181</v>
       </c>
-      <c r="O61" s="3">
+      <c r="W61" s="3">
         <v>47062</v>
       </c>
-      <c r="P61" s="3">
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3">
         <v>30543</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="AA61" s="3">
         <v>28105</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -3884,38 +4553,48 @@
       <c r="G62" s="3">
         <v>83815</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3">
         <v>4229</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4143</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3">
         <v>3210</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>2854</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3">
         <v>793525</v>
       </c>
-      <c r="M62" s="3">
+      <c r="S62" s="3">
         <v>809771</v>
       </c>
-      <c r="N62" s="3">
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3">
         <v>41235</v>
       </c>
-      <c r="O62" s="3">
+      <c r="W62" s="3">
         <v>39657</v>
       </c>
-      <c r="P62" s="3">
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3">
         <v>26546</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="AA62" s="3">
         <v>23873</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -3934,38 +4613,48 @@
       <c r="G63" s="3">
         <v>77001</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3">
         <v>4299</v>
       </c>
-      <c r="I63" s="3">
+      <c r="K63" s="3">
         <v>4181</v>
       </c>
-      <c r="J63" s="3">
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3">
         <v>3431</v>
       </c>
-      <c r="K63" s="3">
+      <c r="O63" s="3">
         <v>3058</v>
       </c>
-      <c r="L63" s="3">
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3">
         <v>1261967</v>
       </c>
-      <c r="M63" s="3">
+      <c r="S63" s="3">
         <v>1361169</v>
       </c>
-      <c r="N63" s="3">
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3">
         <v>62222</v>
       </c>
-      <c r="O63" s="3">
+      <c r="W63" s="3">
         <v>60294</v>
       </c>
-      <c r="P63" s="3">
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3">
         <v>36306</v>
       </c>
-      <c r="Q63" s="3">
+      <c r="AA63" s="3">
         <v>35525</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -3984,38 +4673,48 @@
       <c r="G64" s="3">
         <v>192275</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3">
         <v>8276</v>
       </c>
-      <c r="I64" s="3">
+      <c r="K64" s="3">
         <v>7920</v>
       </c>
-      <c r="J64" s="3">
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3">
         <v>5648</v>
       </c>
-      <c r="K64" s="3">
+      <c r="O64" s="3">
         <v>4670</v>
       </c>
-      <c r="L64" s="3">
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3">
         <v>1404944</v>
       </c>
-      <c r="M64" s="3">
+      <c r="S64" s="3">
         <v>1345667</v>
       </c>
-      <c r="N64" s="3">
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3">
         <v>65549</v>
       </c>
-      <c r="O64" s="3">
+      <c r="W64" s="3">
         <v>61852</v>
       </c>
-      <c r="P64" s="3">
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3">
         <v>37227</v>
       </c>
-      <c r="Q64" s="3">
+      <c r="AA64" s="3">
         <v>35494</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -4034,38 +4733,48 @@
       <c r="G65" s="3">
         <v>104147</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3">
         <v>3856</v>
       </c>
-      <c r="I65" s="3">
+      <c r="K65" s="3">
         <v>3702</v>
       </c>
-      <c r="J65" s="3">
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3">
         <v>2881</v>
       </c>
-      <c r="K65" s="3">
+      <c r="O65" s="3">
         <v>2311</v>
       </c>
-      <c r="L65" s="3">
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3">
         <v>1279885</v>
       </c>
-      <c r="M65" s="3">
+      <c r="S65" s="3">
         <v>1251792</v>
       </c>
-      <c r="N65" s="3">
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3">
         <v>62275</v>
       </c>
-      <c r="O65" s="3">
+      <c r="W65" s="3">
         <v>58904</v>
       </c>
-      <c r="P65" s="3">
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3">
         <v>32398</v>
       </c>
-      <c r="Q65" s="3">
+      <c r="AA65" s="3">
         <v>27346</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -4084,38 +4793,48 @@
       <c r="G66" s="3">
         <v>49313</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3">
         <v>2234</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2054</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3">
         <v>1614</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>1329</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3">
         <v>0</v>
       </c>
-      <c r="M66" s="3">
+      <c r="S66" s="3">
         <v>0</v>
       </c>
-      <c r="N66" s="3">
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3">
         <v>0</v>
       </c>
-      <c r="O66" s="3">
+      <c r="W66" s="3">
         <v>0</v>
       </c>
-      <c r="P66" s="3">
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3">
         <v>0</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="AA66" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -4134,38 +4853,48 @@
       <c r="G67" s="3">
         <v>231469</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3">
         <v>7545</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="K67" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J67" s="3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3">
         <v>5769</v>
       </c>
-      <c r="K67" s="3">
+      <c r="O67" s="3">
         <v>4381</v>
       </c>
-      <c r="L67" s="3">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3">
         <v>0</v>
       </c>
-      <c r="M67" s="3">
+      <c r="S67" s="3">
         <v>0</v>
       </c>
-      <c r="N67" s="3">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3">
         <v>0</v>
       </c>
-      <c r="O67" s="3">
+      <c r="W67" s="3">
         <v>0</v>
       </c>
-      <c r="P67" s="3">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3">
         <v>0</v>
       </c>
-      <c r="Q67" s="3">
+      <c r="AA67" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -4184,38 +4913,48 @@
       <c r="G68" s="3">
         <v>135921</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3">
         <v>4678</v>
       </c>
-      <c r="I68" s="3">
+      <c r="K68" s="3">
         <v>4145</v>
       </c>
-      <c r="J68" s="3">
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3">
         <v>3284</v>
       </c>
-      <c r="K68" s="3">
+      <c r="O68" s="3">
         <v>2645</v>
       </c>
-      <c r="L68" s="3">
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3">
         <v>1239398</v>
       </c>
-      <c r="M68" s="3">
+      <c r="S68" s="3">
         <v>1222472</v>
       </c>
-      <c r="N68" s="3">
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3">
         <v>56857</v>
       </c>
-      <c r="O68" s="3">
+      <c r="W68" s="3">
         <v>53404</v>
       </c>
-      <c r="P68" s="3">
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3">
         <v>30310</v>
       </c>
-      <c r="Q68" s="3">
+      <c r="AA68" s="3">
         <v>28634</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -4234,38 +4973,48 @@
       <c r="G69" s="3">
         <v>79958</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3">
         <v>3880</v>
       </c>
-      <c r="I69" s="3">
+      <c r="K69" s="3">
         <v>3844</v>
       </c>
-      <c r="J69" s="3">
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3">
         <v>3482</v>
       </c>
-      <c r="K69" s="3">
+      <c r="O69" s="3">
         <v>2743</v>
       </c>
-      <c r="L69" s="3">
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3">
         <v>520333</v>
       </c>
-      <c r="M69" s="3">
+      <c r="S69" s="3">
         <v>579525</v>
       </c>
-      <c r="N69" s="3">
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3">
         <v>22792</v>
       </c>
-      <c r="O69" s="3">
+      <c r="W69" s="3">
         <v>21936</v>
       </c>
-      <c r="P69" s="3">
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3">
         <v>14284</v>
       </c>
-      <c r="Q69" s="3">
+      <c r="AA69" s="3">
         <v>14273</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -4284,38 +5033,48 @@
       <c r="G70" s="3">
         <v>4885126</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3">
         <v>202075</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>194700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3">
         <v>162085</v>
       </c>
-      <c r="K70" s="3">
+      <c r="O70" s="3">
         <v>136926</v>
       </c>
-      <c r="L70" s="3">
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3">
         <v>34963803</v>
       </c>
-      <c r="M70" s="3">
+      <c r="S70" s="3">
         <v>35835640</v>
       </c>
-      <c r="N70" s="3">
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3">
         <v>1783001</v>
       </c>
-      <c r="O70" s="3">
+      <c r="W70" s="3">
         <v>1707685</v>
       </c>
-      <c r="P70" s="3">
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3">
         <v>1074597</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="AA70" s="3">
         <v>1013960</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -4334,38 +5093,48 @@
       <c r="G71" s="3">
         <v>163410</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3">
         <v>8569</v>
       </c>
-      <c r="I71" s="3">
+      <c r="K71" s="3">
         <v>7887</v>
       </c>
-      <c r="J71" s="3">
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3">
         <v>6923</v>
       </c>
-      <c r="K71" s="3">
+      <c r="O71" s="3">
         <v>5499</v>
       </c>
-      <c r="L71" s="3">
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3">
         <v>1336454</v>
       </c>
-      <c r="M71" s="3">
+      <c r="S71" s="3">
         <v>1295216</v>
       </c>
-      <c r="N71" s="3">
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3">
         <v>72962</v>
       </c>
-      <c r="O71" s="3">
+      <c r="W71" s="3">
         <v>69921</v>
       </c>
-      <c r="P71" s="3">
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3">
         <v>44660</v>
       </c>
-      <c r="Q71" s="3">
+      <c r="AA71" s="3">
         <v>39454</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -4384,38 +5153,48 @@
       <c r="G72" s="3">
         <v>7986323</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3">
         <v>314513</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>296844</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3">
         <v>241063</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>202375</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3">
         <v>53997501</v>
       </c>
-      <c r="M72" s="3">
+      <c r="S72" s="3">
         <v>54977413</v>
       </c>
-      <c r="N72" s="3">
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3">
         <v>2590635</v>
       </c>
-      <c r="O72" s="3">
+      <c r="W72" s="3">
         <v>2172495</v>
       </c>
-      <c r="P72" s="3">
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3">
         <v>1528359</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="AA72" s="3">
         <v>1436640</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -4434,38 +5213,48 @@
       <c r="G73" s="3">
         <v>77879</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3">
         <v>519</v>
       </c>
-      <c r="I73" s="3">
+      <c r="K73" s="3">
         <v>390</v>
       </c>
-      <c r="J73" s="3">
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3">
         <v>2869</v>
       </c>
-      <c r="K73" s="3">
+      <c r="O73" s="3">
         <v>1979</v>
       </c>
-      <c r="L73" s="3">
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3">
         <v>438169</v>
       </c>
-      <c r="M73" s="3">
+      <c r="S73" s="3">
         <v>357600</v>
       </c>
-      <c r="N73" s="3">
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3">
         <v>14224</v>
       </c>
-      <c r="O73" s="3">
+      <c r="W73" s="3">
         <v>11758</v>
       </c>
-      <c r="P73" s="3">
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3">
         <v>7761</v>
       </c>
-      <c r="Q73" s="3">
+      <c r="AA73" s="3">
         <v>6844</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -4484,38 +5273,48 @@
       <c r="G74" s="3">
         <v>15775</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3">
         <v>425</v>
       </c>
-      <c r="I74" s="3">
+      <c r="K74" s="3">
         <v>432</v>
       </c>
-      <c r="J74" s="3">
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3">
         <v>258</v>
       </c>
-      <c r="K74" s="3">
+      <c r="O74" s="3">
         <v>266</v>
       </c>
-      <c r="L74" s="3">
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3">
         <v>62826</v>
       </c>
-      <c r="M74" s="3">
+      <c r="S74" s="3">
         <v>62094</v>
       </c>
-      <c r="N74" s="3">
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3">
         <v>1512</v>
       </c>
-      <c r="O74" s="3">
+      <c r="W74" s="3">
         <v>1439</v>
       </c>
-      <c r="P74" s="3">
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3">
         <v>963</v>
       </c>
-      <c r="Q74" s="3">
+      <c r="AA74" s="3">
         <v>862</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -4534,38 +5333,48 @@
       <c r="G75" s="3">
         <v>25110</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3">
         <v>807</v>
       </c>
-      <c r="I75" s="3">
+      <c r="K75" s="3">
         <v>784</v>
       </c>
-      <c r="J75" s="3">
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3">
         <v>621</v>
       </c>
-      <c r="K75" s="3">
+      <c r="O75" s="3">
         <v>510</v>
       </c>
-      <c r="L75" s="3">
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3">
         <v>296609</v>
       </c>
-      <c r="M75" s="3">
+      <c r="S75" s="3">
         <v>310548</v>
       </c>
-      <c r="N75" s="3">
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3">
         <v>6946</v>
       </c>
-      <c r="O75" s="3">
+      <c r="W75" s="3">
         <v>6743</v>
       </c>
-      <c r="P75" s="3">
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3">
         <v>5792</v>
       </c>
-      <c r="Q75" s="3">
+      <c r="AA75" s="3">
         <v>4911</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -4584,38 +5393,48 @@
       <c r="G76" s="3">
         <v>53511</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3">
         <v>1082</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>966</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3">
         <v>950</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>729</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3">
         <v>516339</v>
       </c>
-      <c r="M76" s="3">
+      <c r="S76" s="3">
         <v>464615</v>
       </c>
-      <c r="N76" s="3">
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3">
         <v>10668</v>
       </c>
-      <c r="O76" s="3">
+      <c r="W76" s="3">
         <v>8890</v>
       </c>
-      <c r="P76" s="3">
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3">
         <v>7070</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="AA76" s="3">
         <v>5846</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -4634,38 +5453,48 @@
       <c r="G77" s="3">
         <v>18281</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3">
         <v>373</v>
       </c>
-      <c r="I77" s="3">
+      <c r="K77" s="3">
         <v>311</v>
       </c>
-      <c r="J77" s="3">
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3">
         <v>202</v>
       </c>
-      <c r="K77" s="3">
+      <c r="O77" s="3">
         <v>204</v>
       </c>
-      <c r="L77" s="3">
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3">
         <v>164113</v>
       </c>
-      <c r="M77" s="3">
+      <c r="S77" s="3">
         <v>153109</v>
       </c>
-      <c r="N77" s="3">
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3">
         <v>6659</v>
       </c>
-      <c r="O77" s="3">
+      <c r="W77" s="3">
         <v>6302</v>
       </c>
-      <c r="P77" s="3">
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3">
         <v>3266</v>
       </c>
-      <c r="Q77" s="3">
+      <c r="AA77" s="3">
         <v>2869</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -4684,38 +5513,48 @@
       <c r="G78" s="3">
         <v>92549</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3">
         <v>4747</v>
       </c>
-      <c r="I78" s="3">
+      <c r="K78" s="3">
         <v>4624</v>
       </c>
-      <c r="J78" s="3">
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3">
         <v>3665</v>
       </c>
-      <c r="K78" s="3">
+      <c r="O78" s="3">
         <v>2957</v>
       </c>
-      <c r="L78" s="3">
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3">
         <v>1146404</v>
       </c>
-      <c r="M78" s="3">
+      <c r="S78" s="3">
         <v>1120927</v>
       </c>
-      <c r="N78" s="3">
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3">
         <v>65401</v>
       </c>
-      <c r="O78" s="3">
+      <c r="W78" s="3">
         <v>61867</v>
       </c>
-      <c r="P78" s="3">
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3">
         <v>33507</v>
       </c>
-      <c r="Q78" s="3">
+      <c r="AA78" s="3">
         <v>30969</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -4734,38 +5573,48 @@
       <c r="G79" s="3">
         <v>25676</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3">
         <v>848</v>
       </c>
-      <c r="I79" s="3">
+      <c r="K79" s="3">
         <v>714</v>
       </c>
-      <c r="J79" s="3">
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3">
         <v>560</v>
       </c>
-      <c r="K79" s="3">
+      <c r="O79" s="3">
         <v>457</v>
       </c>
-      <c r="L79" s="3">
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3">
         <v>464610</v>
       </c>
-      <c r="M79" s="3">
+      <c r="S79" s="3">
         <v>408699</v>
       </c>
-      <c r="N79" s="3">
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3">
         <v>10528</v>
       </c>
-      <c r="O79" s="3">
+      <c r="W79" s="3">
         <v>12568</v>
       </c>
-      <c r="P79" s="3">
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3">
         <v>7044</v>
       </c>
-      <c r="Q79" s="3">
+      <c r="AA79" s="3">
         <v>6567</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -4784,38 +5633,48 @@
       <c r="G80" s="3">
         <v>32733</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3">
         <v>1378</v>
       </c>
-      <c r="I80" s="3">
+      <c r="K80" s="3">
         <v>1409</v>
       </c>
-      <c r="J80" s="3">
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3">
         <v>868</v>
       </c>
-      <c r="K80" s="3">
+      <c r="O80" s="3">
         <v>756</v>
       </c>
-      <c r="L80" s="3">
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3">
         <v>544773</v>
       </c>
-      <c r="M80" s="3">
+      <c r="S80" s="3">
         <v>525906</v>
       </c>
-      <c r="N80" s="3">
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3">
         <v>33864</v>
       </c>
-      <c r="O80" s="3">
+      <c r="W80" s="3">
         <v>32265</v>
       </c>
-      <c r="P80" s="3">
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3">
         <v>18202</v>
       </c>
-      <c r="Q80" s="3">
+      <c r="AA80" s="3">
         <v>16956</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -4834,38 +5693,48 @@
       <c r="G81" s="3">
         <v>75177</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3">
         <v>4055</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3930</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3">
         <v>2531</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>1940</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3">
         <v>473841</v>
       </c>
-      <c r="M81" s="3">
+      <c r="S81" s="3">
         <v>438587</v>
       </c>
-      <c r="N81" s="3">
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3">
         <v>18434</v>
       </c>
-      <c r="O81" s="3">
+      <c r="W81" s="3">
         <v>17000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3">
         <v>9891</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="AA81" s="3">
         <v>8922</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -4884,38 +5753,48 @@
       <c r="G82" s="3">
         <v>154917</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3">
         <v>6595</v>
       </c>
-      <c r="I82" s="3">
+      <c r="K82" s="3">
         <v>4175</v>
       </c>
-      <c r="J82" s="3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3">
         <v>2984</v>
       </c>
-      <c r="K82" s="3">
+      <c r="O82" s="3">
         <v>1721</v>
       </c>
-      <c r="L82" s="3">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3">
         <v>437921</v>
       </c>
-      <c r="M82" s="3">
+      <c r="S82" s="3">
         <v>380604</v>
       </c>
-      <c r="N82" s="3">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3">
         <v>16247</v>
       </c>
-      <c r="O82" s="3">
+      <c r="W82" s="3">
         <v>14382</v>
       </c>
-      <c r="P82" s="3">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3">
         <v>8832</v>
       </c>
-      <c r="Q82" s="3">
+      <c r="AA82" s="3">
         <v>7629</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -4934,38 +5813,48 @@
       <c r="G83" s="3">
         <v>23548</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3">
         <v>1019</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>976</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3">
         <v>681</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>509</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3">
         <v>33727</v>
       </c>
-      <c r="M83" s="3">
+      <c r="S83" s="3">
         <v>25576</v>
       </c>
-      <c r="N83" s="3">
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3">
         <v>1168</v>
       </c>
-      <c r="O83" s="3">
+      <c r="W83" s="3">
         <v>986</v>
       </c>
-      <c r="P83" s="3">
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3">
         <v>468</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="AA83" s="3">
         <v>394</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -4984,38 +5873,48 @@
       <c r="G84" s="3">
         <v>34018</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3">
         <v>2111</v>
       </c>
-      <c r="I84" s="3">
+      <c r="K84" s="3">
         <v>1928</v>
       </c>
-      <c r="J84" s="3">
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3">
         <v>1153</v>
       </c>
-      <c r="K84" s="3">
+      <c r="O84" s="3">
         <v>1009</v>
       </c>
-      <c r="L84" s="3">
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3">
         <v>407903</v>
       </c>
-      <c r="M84" s="3">
+      <c r="S84" s="3">
         <v>365018</v>
       </c>
-      <c r="N84" s="3">
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3">
         <v>18626</v>
       </c>
-      <c r="O84" s="3">
+      <c r="W84" s="3">
         <v>13930</v>
       </c>
-      <c r="P84" s="3">
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3">
         <v>9762</v>
       </c>
-      <c r="Q84" s="3">
+      <c r="AA84" s="3">
         <v>9938</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -5034,38 +5933,48 @@
       <c r="G85" s="3">
         <v>629174</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3">
         <v>23969</v>
       </c>
-      <c r="I85" s="3">
+      <c r="K85" s="3">
         <v>20639</v>
       </c>
-      <c r="J85" s="3">
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3">
         <v>17342</v>
       </c>
-      <c r="K85" s="3">
+      <c r="O85" s="3">
         <v>13037</v>
       </c>
-      <c r="L85" s="3">
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3">
         <v>4987235</v>
       </c>
-      <c r="M85" s="3">
+      <c r="S85" s="3">
         <v>4613283</v>
       </c>
-      <c r="N85" s="3">
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3">
         <v>204277</v>
       </c>
-      <c r="O85" s="3">
+      <c r="W85" s="3">
         <v>188130</v>
       </c>
-      <c r="P85" s="3">
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3">
         <v>112558</v>
       </c>
-      <c r="Q85" s="3">
+      <c r="AA85" s="3">
         <v>102707</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -5084,38 +5993,48 @@
       <c r="G86" s="3">
         <v>21208</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3">
         <v>1152</v>
       </c>
-      <c r="I86" s="3">
+      <c r="K86" s="3">
         <v>1140</v>
       </c>
-      <c r="J86" s="3">
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3">
         <v>1226</v>
       </c>
-      <c r="K86" s="3">
+      <c r="O86" s="3">
         <v>879</v>
       </c>
-      <c r="L86" s="3">
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3">
         <v>57212</v>
       </c>
-      <c r="M86" s="3">
+      <c r="S86" s="3">
         <v>41009</v>
       </c>
-      <c r="N86" s="3">
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3">
         <v>2933</v>
       </c>
-      <c r="O86" s="3">
+      <c r="W86" s="3">
         <v>2720</v>
       </c>
-      <c r="P86" s="3">
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3">
         <v>2295</v>
       </c>
-      <c r="Q86" s="3">
+      <c r="AA86" s="3">
         <v>2044</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -5134,38 +6053,48 @@
       <c r="G87" s="3">
         <v>44257</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3">
         <v>2512</v>
       </c>
-      <c r="I87" s="3">
+      <c r="K87" s="3">
         <v>2376</v>
       </c>
-      <c r="J87" s="3">
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3">
         <v>2214</v>
       </c>
-      <c r="K87" s="3">
+      <c r="O87" s="3">
         <v>1626</v>
       </c>
-      <c r="L87" s="3">
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3">
         <v>362078</v>
       </c>
-      <c r="M87" s="3">
+      <c r="S87" s="3">
         <v>326945</v>
       </c>
-      <c r="N87" s="3">
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3">
         <v>19868</v>
       </c>
-      <c r="O87" s="3">
+      <c r="W87" s="3">
         <v>19164</v>
       </c>
-      <c r="P87" s="3">
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3">
         <v>14324</v>
       </c>
-      <c r="Q87" s="3">
+      <c r="AA87" s="3">
         <v>12666</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -5184,38 +6113,48 @@
       <c r="G88" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
       <c r="J88" s="3" t="s">
         <v>110</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L88" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
       <c r="N88" s="3" t="s">
         <v>110</v>
       </c>
       <c r="O88" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P88" s="3" t="s">
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q88" s="3" t="s">
+      <c r="S88" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA88" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -5234,38 +6173,48 @@
       <c r="G89" s="3">
         <v>32290</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3">
         <v>2164</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2180</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3">
         <v>1833</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>1327</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3">
         <v>276702</v>
       </c>
-      <c r="M89" s="3">
+      <c r="S89" s="3">
         <v>242843</v>
       </c>
-      <c r="N89" s="3">
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3">
         <v>13062</v>
       </c>
-      <c r="O89" s="3">
+      <c r="W89" s="3">
         <v>12455</v>
       </c>
-      <c r="P89" s="3">
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3">
         <v>8820</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="AA89" s="3">
         <v>9254</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -5284,38 +6233,48 @@
       <c r="G90" s="3">
         <v>53818</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3">
         <v>1983</v>
       </c>
-      <c r="I90" s="3">
+      <c r="K90" s="3">
         <v>1601</v>
       </c>
-      <c r="J90" s="3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3">
         <v>1788</v>
       </c>
-      <c r="K90" s="3">
+      <c r="O90" s="3">
         <v>1151</v>
       </c>
-      <c r="L90" s="3">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3">
         <v>201137</v>
       </c>
-      <c r="M90" s="3">
+      <c r="S90" s="3">
         <v>136626</v>
       </c>
-      <c r="N90" s="3">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3">
         <v>4745</v>
       </c>
-      <c r="O90" s="3">
+      <c r="W90" s="3">
         <v>4070</v>
       </c>
-      <c r="P90" s="3">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3">
         <v>2733</v>
       </c>
-      <c r="Q90" s="3">
+      <c r="AA90" s="3">
         <v>2162</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -5334,38 +6293,48 @@
       <c r="G91" s="3">
         <v>53199</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3">
         <v>2341</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>2244</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3">
         <v>2257</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>1848</v>
       </c>
-      <c r="L91" s="3">
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3">
         <v>812246</v>
       </c>
-      <c r="M91" s="3">
+      <c r="S91" s="3">
         <v>821178</v>
       </c>
-      <c r="N91" s="3">
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3">
         <v>50296</v>
       </c>
-      <c r="O91" s="3">
+      <c r="W91" s="3">
         <v>48127</v>
       </c>
-      <c r="P91" s="3">
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3">
         <v>36066</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="AA91" s="3">
         <v>33555</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -5384,38 +6353,48 @@
       <c r="G92" s="3">
         <v>84598</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3">
         <v>5993</v>
       </c>
-      <c r="I92" s="3">
+      <c r="K92" s="3">
         <v>5684</v>
       </c>
-      <c r="J92" s="3">
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3">
         <v>4620</v>
       </c>
-      <c r="K92" s="3">
+      <c r="O92" s="3">
         <v>4306</v>
       </c>
-      <c r="L92" s="3">
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3">
         <v>1294647</v>
       </c>
-      <c r="M92" s="3">
+      <c r="S92" s="3">
         <v>1290090</v>
       </c>
-      <c r="N92" s="3">
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3">
         <v>66803</v>
       </c>
-      <c r="O92" s="3">
+      <c r="W92" s="3">
         <v>66064</v>
       </c>
-      <c r="P92" s="3">
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3">
         <v>37342</v>
       </c>
-      <c r="Q92" s="3">
+      <c r="AA92" s="3">
         <v>38031</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -5434,38 +6413,48 @@
       <c r="G93" s="3">
         <v>4594</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3">
         <v>270</v>
       </c>
-      <c r="I93" s="3">
+      <c r="K93" s="3">
         <v>253</v>
       </c>
-      <c r="J93" s="3">
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3">
         <v>145</v>
       </c>
-      <c r="K93" s="3">
+      <c r="O93" s="3">
         <v>165</v>
       </c>
-      <c r="L93" s="3">
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3">
         <v>132529</v>
       </c>
-      <c r="M93" s="3">
+      <c r="S93" s="3">
         <v>126717</v>
       </c>
-      <c r="N93" s="3">
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3">
         <v>4295</v>
       </c>
-      <c r="O93" s="3">
+      <c r="W93" s="3">
         <v>3921</v>
       </c>
-      <c r="P93" s="3">
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3">
         <v>3050</v>
       </c>
-      <c r="Q93" s="3">
+      <c r="AA93" s="3">
         <v>2756</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -5484,38 +6473,48 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="S94" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="W94" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q94" s="3" t="s">
+      <c r="AA94" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -5534,38 +6533,48 @@
       <c r="G95" s="3">
         <v>298964</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3">
         <v>16415</v>
       </c>
-      <c r="I95" s="3">
+      <c r="K95" s="3">
         <v>15428</v>
       </c>
-      <c r="J95" s="3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3">
         <v>14083</v>
       </c>
-      <c r="K95" s="3">
+      <c r="O95" s="3">
         <v>11302</v>
       </c>
-      <c r="L95" s="3">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3">
         <v>3136551</v>
       </c>
-      <c r="M95" s="3">
+      <c r="S95" s="3">
         <v>2985408</v>
       </c>
-      <c r="N95" s="3">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3">
         <v>162002</v>
       </c>
-      <c r="O95" s="3">
+      <c r="W95" s="3">
         <v>156521</v>
       </c>
-      <c r="P95" s="3">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3">
         <v>104630</v>
       </c>
-      <c r="Q95" s="3">
+      <c r="AA95" s="3">
         <v>100468</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -5584,38 +6593,48 @@
       <c r="G96" s="3">
         <v>66707</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3">
         <v>3887</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>3749</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3">
         <v>3170</v>
       </c>
-      <c r="K96" s="3">
+      <c r="O96" s="3">
         <v>2827</v>
       </c>
-      <c r="L96" s="3">
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3">
         <v>444666</v>
       </c>
-      <c r="M96" s="3">
+      <c r="S96" s="3">
         <v>400900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3">
         <v>17006</v>
       </c>
-      <c r="O96" s="3">
+      <c r="W96" s="3">
         <v>16665</v>
       </c>
-      <c r="P96" s="3">
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3">
         <v>9741</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="AA96" s="3">
         <v>9455</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -5634,38 +6653,48 @@
       <c r="G97" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
       <c r="J97" s="3" t="s">
         <v>110</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L97" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
       <c r="N97" s="3" t="s">
         <v>110</v>
       </c>
       <c r="O97" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P97" s="3" t="s">
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q97" s="3" t="s">
+      <c r="S97" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA97" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -5684,38 +6713,48 @@
       <c r="G98" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
       <c r="J98" s="3" t="s">
         <v>110</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L98" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
       <c r="N98" s="3" t="s">
         <v>110</v>
       </c>
       <c r="O98" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P98" s="3" t="s">
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q98" s="3" t="s">
+      <c r="S98" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA98" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -5734,38 +6773,48 @@
       <c r="G99" s="3">
         <v>25613</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3">
         <v>1569</v>
       </c>
-      <c r="I99" s="3">
+      <c r="K99" s="3">
         <v>1514</v>
       </c>
-      <c r="J99" s="3">
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3">
         <v>1121</v>
       </c>
-      <c r="K99" s="3">
+      <c r="O99" s="3">
         <v>1023</v>
       </c>
-      <c r="L99" s="3">
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3">
         <v>380891</v>
       </c>
-      <c r="M99" s="3">
+      <c r="S99" s="3">
         <v>314255</v>
       </c>
-      <c r="N99" s="3">
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3">
         <v>7511</v>
       </c>
-      <c r="O99" s="3">
+      <c r="W99" s="3">
         <v>6229</v>
       </c>
-      <c r="P99" s="3">
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3">
         <v>4803</v>
       </c>
-      <c r="Q99" s="3">
+      <c r="AA99" s="3">
         <v>4061</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -5784,38 +6833,48 @@
       <c r="G100" s="3">
         <v>41617</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3">
         <v>1952</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1832</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3">
         <v>953</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>791</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3">
         <v>541296</v>
       </c>
-      <c r="M100" s="3">
+      <c r="S100" s="3">
         <v>434891</v>
       </c>
-      <c r="N100" s="3">
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3">
         <v>16440</v>
       </c>
-      <c r="O100" s="3">
+      <c r="W100" s="3">
         <v>13978</v>
       </c>
-      <c r="P100" s="3">
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3">
         <v>8777</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="AA100" s="3">
         <v>7386</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -5834,38 +6893,48 @@
       <c r="G101" s="3">
         <v>107847</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3">
         <v>5698</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>4864</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3">
         <v>2743</v>
       </c>
-      <c r="K101" s="3">
+      <c r="O101" s="3">
         <v>1870</v>
       </c>
-      <c r="L101" s="3">
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3">
         <v>774680</v>
       </c>
-      <c r="M101" s="3">
+      <c r="S101" s="3">
         <v>656093</v>
       </c>
-      <c r="N101" s="3">
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3">
         <v>26538</v>
       </c>
-      <c r="O101" s="3">
+      <c r="W101" s="3">
         <v>22035</v>
       </c>
-      <c r="P101" s="3">
+      <c r="X101" s="3"/>
+      <c r="Y101" s="3"/>
+      <c r="Z101" s="3">
         <v>15797</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="AA101" s="3">
         <v>13714</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -5884,38 +6953,48 @@
       <c r="G102" s="3">
         <v>14322</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3">
         <v>997</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>929</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3">
         <v>568</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>498</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3">
         <v>284657</v>
       </c>
-      <c r="M102" s="3">
+      <c r="S102" s="3">
         <v>277689</v>
       </c>
-      <c r="N102" s="3">
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3">
         <v>10666</v>
       </c>
-      <c r="O102" s="3">
+      <c r="W102" s="3">
         <v>9904</v>
       </c>
-      <c r="P102" s="3">
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="3">
         <v>6318</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="AA102" s="3">
         <v>6455</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -5934,38 +7013,48 @@
       <c r="G103" s="3">
         <v>28840</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3">
         <v>1489</v>
       </c>
-      <c r="I103" s="3">
+      <c r="K103" s="3">
         <v>1482</v>
       </c>
-      <c r="J103" s="3">
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3">
         <v>1046</v>
       </c>
-      <c r="K103" s="3">
+      <c r="O103" s="3">
         <v>862</v>
       </c>
-      <c r="L103" s="3">
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3">
         <v>357238</v>
       </c>
-      <c r="M103" s="3">
+      <c r="S103" s="3">
         <v>320240</v>
       </c>
-      <c r="N103" s="3">
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+      <c r="V103" s="3">
         <v>8364</v>
       </c>
-      <c r="O103" s="3">
+      <c r="W103" s="3">
         <v>7862</v>
       </c>
-      <c r="P103" s="3">
+      <c r="X103" s="3"/>
+      <c r="Y103" s="3"/>
+      <c r="Z103" s="3">
         <v>5357</v>
       </c>
-      <c r="Q103" s="3">
+      <c r="AA103" s="3">
         <v>4879</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -5984,38 +7073,48 @@
       <c r="G104" s="3">
         <v>137302</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3">
         <v>5223</v>
       </c>
-      <c r="I104" s="3">
+      <c r="K104" s="3">
         <v>4603</v>
       </c>
-      <c r="J104" s="3">
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3">
         <v>3202</v>
       </c>
-      <c r="K104" s="3">
+      <c r="O104" s="3">
         <v>2419</v>
       </c>
-      <c r="L104" s="3">
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3">
         <v>864928</v>
       </c>
-      <c r="M104" s="3">
+      <c r="S104" s="3">
         <v>753104</v>
       </c>
-      <c r="N104" s="3">
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3">
         <v>22714</v>
       </c>
-      <c r="O104" s="3">
+      <c r="W104" s="3">
         <v>19497</v>
       </c>
-      <c r="P104" s="3">
+      <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="3">
         <v>11978</v>
       </c>
-      <c r="Q104" s="3">
+      <c r="AA104" s="3">
         <v>10441</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -6034,38 +7133,48 @@
       <c r="G105" s="3">
         <v>422248</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3">
         <v>20815</v>
       </c>
-      <c r="I105" s="3">
+      <c r="K105" s="3">
         <v>18973</v>
       </c>
-      <c r="J105" s="3">
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3">
         <v>12803</v>
       </c>
-      <c r="K105" s="3">
+      <c r="O105" s="3">
         <v>10290</v>
       </c>
-      <c r="L105" s="3">
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3">
         <v>3648356</v>
       </c>
-      <c r="M105" s="3">
+      <c r="S105" s="3">
         <v>3157272</v>
       </c>
-      <c r="N105" s="3">
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3">
         <v>109269</v>
       </c>
-      <c r="O105" s="3">
+      <c r="W105" s="3">
         <v>96174</v>
       </c>
-      <c r="P105" s="3">
+      <c r="X105" s="3"/>
+      <c r="Y105" s="3"/>
+      <c r="Z105" s="3">
         <v>62771</v>
       </c>
-      <c r="Q105" s="3">
+      <c r="AA105" s="3">
         <v>56391</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -6084,38 +7193,48 @@
       <c r="G106" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3">
         <v>61190</v>
       </c>
-      <c r="I106" s="3">
+      <c r="K106" s="3">
         <v>55040</v>
       </c>
-      <c r="J106" s="3">
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3">
         <v>44228</v>
       </c>
-      <c r="K106" s="3">
+      <c r="O106" s="3">
         <v>34629</v>
       </c>
-      <c r="L106" s="3">
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3">
         <v>11772142</v>
       </c>
-      <c r="M106" s="3">
+      <c r="S106" s="3">
         <v>10755963</v>
       </c>
-      <c r="N106" s="3">
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3">
         <v>475548</v>
       </c>
-      <c r="O106" s="3">
+      <c r="W106" s="3">
         <v>440825</v>
       </c>
-      <c r="P106" s="3">
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="3">
         <v>279959</v>
       </c>
-      <c r="Q106" s="3">
+      <c r="AA106" s="3">
         <v>259566</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -6134,58 +7253,68 @@
       <c r="G107" s="3">
         <v>9381709</v>
       </c>
-      <c r="H107" s="3">
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3">
         <v>375708</v>
       </c>
-      <c r="I107" s="3">
+      <c r="K107" s="3">
         <v>351884</v>
       </c>
-      <c r="J107" s="3">
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3">
         <v>285291</v>
       </c>
-      <c r="K107" s="3">
+      <c r="O107" s="3">
         <v>287004</v>
       </c>
-      <c r="L107" s="3">
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3">
         <v>65769648</v>
       </c>
-      <c r="M107" s="3">
+      <c r="S107" s="3">
         <v>65733376</v>
       </c>
-      <c r="N107" s="3">
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3">
         <v>3066183</v>
       </c>
-      <c r="O107" s="3">
+      <c r="W107" s="3">
         <v>2918320</v>
       </c>
-      <c r="P107" s="3">
+      <c r="X107" s="3"/>
+      <c r="Y107" s="3"/>
+      <c r="Z107" s="3">
         <v>1808318</v>
       </c>
-      <c r="Q107" s="3">
+      <c r="AA107" s="3">
         <v>1696206</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1907.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1907.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0538C0-E00C-48BB-AD38-5C33D553369F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9251AC06-9E7E-43B3-89BB-BBE227FAB80B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{26DDFB96-2A59-463B-8827-7F297B6E5252}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="130">
   <si>
     <t>губ</t>
   </si>
@@ -400,39 +400,6 @@
   </si>
   <si>
     <t>чс-уез-ж YY</t>
-  </si>
-  <si>
-    <t>353С</t>
-  </si>
-  <si>
-    <t>243С</t>
-  </si>
-  <si>
-    <t>69920!</t>
-  </si>
-  <si>
-    <t>87716?</t>
-  </si>
-  <si>
-    <t>82356’</t>
-  </si>
-  <si>
-    <t>71972;</t>
-  </si>
-  <si>
-    <t>7092Э</t>
-  </si>
-  <si>
-    <t>7І74</t>
-  </si>
-  <si>
-    <t>4180!</t>
-  </si>
-  <si>
-    <t>5Т13</t>
-  </si>
-  <si>
-    <t>13)5386</t>
   </si>
   <si>
     <t>чж-гор-о NYY</t>
@@ -821,7 +788,7 @@
   <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:AC1"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,10 +835,10 @@
         <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>113</v>
@@ -880,10 +847,10 @@
         <v>114</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>115</v>
@@ -892,10 +859,10 @@
         <v>116</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>117</v>
@@ -904,10 +871,10 @@
         <v>118</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>119</v>
@@ -916,10 +883,10 @@
         <v>120</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>121</v>
@@ -928,10 +895,10 @@
         <v>122</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -983,7 +950,7 @@
         <v>8422</v>
       </c>
       <c r="W2" s="3">
-        <v>7995</v>
+        <v>7992</v>
       </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -1018,8 +985,8 @@
       <c r="J3" s="3">
         <v>3647</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>123</v>
+      <c r="K3" s="3">
+        <v>3530</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -1043,7 +1010,7 @@
         <v>20306</v>
       </c>
       <c r="W3" s="3">
-        <v>19055</v>
+        <v>19057</v>
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
@@ -1094,8 +1061,8 @@
       <c r="R4" s="3">
         <v>828628</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>127</v>
+      <c r="S4" s="3">
+        <v>823567</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
@@ -1103,7 +1070,7 @@
         <v>28016</v>
       </c>
       <c r="W4" s="3">
-        <v>26615</v>
+        <v>26618</v>
       </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
@@ -1151,8 +1118,8 @@
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3" t="s">
-        <v>125</v>
+      <c r="R5" s="3">
+        <v>699209</v>
       </c>
       <c r="S5" s="3">
         <v>704141</v>
@@ -1222,8 +1189,8 @@
       <c r="V6" s="3">
         <v>75926</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>129</v>
+      <c r="W6" s="3">
+        <v>70923</v>
       </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
@@ -1274,8 +1241,8 @@
       <c r="R7" s="3">
         <v>736378</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>128</v>
+      <c r="S7" s="3">
+        <v>719723</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -1498,8 +1465,8 @@
       <c r="J11" s="3">
         <v>2992</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>124</v>
+      <c r="K11" s="3">
+        <v>2430</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1571,8 +1538,8 @@
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3" t="s">
-        <v>126</v>
+      <c r="R12" s="3">
+        <v>877163</v>
       </c>
       <c r="S12" s="3">
         <v>873122</v>
@@ -3723,8 +3690,8 @@
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
-      <c r="N48" s="3" t="s">
-        <v>131</v>
+      <c r="N48" s="3">
+        <v>4180</v>
       </c>
       <c r="O48" s="3">
         <v>3531</v>
@@ -3963,8 +3930,8 @@
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
-      <c r="N52" s="3" t="s">
-        <v>132</v>
+      <c r="N52" s="3">
+        <v>5113</v>
       </c>
       <c r="O52" s="3">
         <v>4823</v>
@@ -4858,8 +4825,8 @@
       <c r="J67" s="3">
         <v>7545</v>
       </c>
-      <c r="K67" s="3" t="s">
-        <v>130</v>
+      <c r="K67" s="3">
+        <v>7174</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -7190,8 +7157,8 @@
       <c r="F106" s="3">
         <v>1668250</v>
       </c>
-      <c r="G106" s="3" t="s">
-        <v>133</v>
+      <c r="G106" s="3">
+        <v>1345386</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
